--- a/capiq_data/in_process_data/IQ30763.xlsx
+++ b/capiq_data/in_process_data/IQ30763.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C98B94-A261-4328-BB7A-5DCA57A38E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50959A27-7B70-4756-976E-68F18B98D9C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5653f31c-3645-410e-9458-f59955eeb930"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"dff19ce5-60d4-411d-a2b8-370c7d034470"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
     <t>FQ42010</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ42020</t>
+  </si>
+  <si>
+    <t>FQ12021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,117 +853,117 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36950</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>32.03</v>
+        <v>51.265999999999998</v>
       </c>
       <c r="D2">
-        <v>860.12400000000002</v>
+        <v>1104.0419999999999</v>
       </c>
       <c r="E2">
-        <v>38.252000000000002</v>
+        <v>47.936</v>
       </c>
       <c r="F2">
-        <v>76.866</v>
+        <v>235.83</v>
       </c>
       <c r="G2">
-        <v>7404.1170000000002</v>
+        <v>3022.2559999999999</v>
       </c>
       <c r="H2">
-        <v>8787.8510000000006</v>
+        <v>3692.8539999999998</v>
       </c>
       <c r="I2">
-        <v>168.006</v>
+        <v>671.15499999999997</v>
       </c>
       <c r="J2">
-        <v>3880.4560000000001</v>
+        <v>1291.558</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-61.982999999999997</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-4.4059999999999997</v>
       </c>
       <c r="N2">
-        <v>363.685</v>
+        <v>671.15499999999997</v>
       </c>
       <c r="O2">
-        <v>5593.4679999999998</v>
+        <v>2416.8229999999999</v>
       </c>
       <c r="P2">
-        <v>4152.134</v>
+        <v>1675.751</v>
       </c>
       <c r="Q2">
-        <v>356.601</v>
+        <v>-237.947</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36950</v>
       </c>
       <c r="S2">
-        <v>4087</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3194.3829999999998</v>
+        <v>1276.0309999999999</v>
       </c>
       <c r="U2">
-        <v>1283.6590000000001</v>
+        <v>57.573</v>
       </c>
       <c r="V2">
-        <v>85.141000000000005</v>
+        <v>-169.69800000000001</v>
       </c>
       <c r="W2">
-        <v>-7.3979999999999997</v>
+        <v>-0.76600000000000001</v>
       </c>
       <c r="X2">
-        <v>387.67099999999999</v>
+        <v>-40.587000000000003</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-51.863999999999997</v>
+        <v>-25.503</v>
       </c>
       <c r="AA2">
-        <v>32.03</v>
+        <v>51.265999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>37042</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>27.405999999999999</v>
+        <v>97.006</v>
       </c>
       <c r="D3">
-        <v>558.04499999999996</v>
+        <v>1391.5329999999999</v>
       </c>
       <c r="E3">
-        <v>61.258000000000003</v>
+        <v>47.98</v>
       </c>
       <c r="F3">
-        <v>22.215</v>
+        <v>340.62400000000002</v>
       </c>
       <c r="G3">
-        <v>6963.2579999999998</v>
+        <v>3357.7910000000002</v>
       </c>
       <c r="H3">
-        <v>8580.4840000000004</v>
+        <v>4000.3409999999999</v>
       </c>
       <c r="I3">
-        <v>147.04599999999999</v>
+        <v>586.20500000000004</v>
       </c>
       <c r="J3">
-        <v>3768.16</v>
+        <v>1496.8389999999999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-177.17699999999999</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>260.25299999999999</v>
+        <v>586.20500000000004</v>
       </c>
       <c r="O3">
-        <v>5347.4979999999996</v>
+        <v>2611.529</v>
       </c>
       <c r="P3">
-        <v>4003.7060000000001</v>
+        <v>1947.79</v>
       </c>
       <c r="Q3">
-        <v>-187.54900000000001</v>
+        <v>175.99</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>37042</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3232.9859999999999</v>
+        <v>1388.8119999999999</v>
       </c>
       <c r="U3">
-        <v>1096.961</v>
+        <v>219.00200000000001</v>
       </c>
       <c r="V3">
-        <v>9.6750000000000007</v>
+        <v>-116.776</v>
       </c>
       <c r="W3">
-        <v>-7.4690000000000003</v>
+        <v>-0.77400000000000002</v>
       </c>
       <c r="X3">
-        <v>-195.08799999999999</v>
+        <v>275.33</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-33.119</v>
+        <v>12.163</v>
       </c>
       <c r="AA3">
-        <v>27.405999999999999</v>
+        <v>97.006</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37134</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>13.785</v>
+        <v>106.69499999999999</v>
       </c>
       <c r="D4">
-        <v>764.49300000000005</v>
+        <v>1577.6279999999999</v>
       </c>
       <c r="E4">
-        <v>66.981999999999999</v>
+        <v>46.338999999999999</v>
       </c>
       <c r="F4">
-        <v>145.02000000000001</v>
+        <v>370.62</v>
       </c>
       <c r="G4">
-        <v>6913.5529999999999</v>
+        <v>3481.163</v>
       </c>
       <c r="H4">
-        <v>8699.2289999999994</v>
+        <v>4172.4049999999997</v>
       </c>
       <c r="I4">
-        <v>168.398</v>
+        <v>681.73800000000006</v>
       </c>
       <c r="J4">
-        <v>3743.4119999999998</v>
+        <v>1490.385</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>281.60500000000002</v>
+        <v>681.73800000000006</v>
       </c>
       <c r="O4">
-        <v>5439.9809999999998</v>
+        <v>2677.576</v>
       </c>
       <c r="P4">
-        <v>4046.1210000000001</v>
+        <v>1921.518</v>
       </c>
       <c r="Q4">
-        <v>-75.132000000000005</v>
+        <v>-6.0860000000000003</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37134</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3259.248</v>
+        <v>1494.829</v>
       </c>
       <c r="U4">
-        <v>1014.804</v>
+        <v>208.57</v>
       </c>
       <c r="V4">
-        <v>-5.0659999999999998</v>
+        <v>70.180999999999997</v>
       </c>
       <c r="W4">
-        <v>-7.4770000000000003</v>
+        <v>-0.78700000000000003</v>
       </c>
       <c r="X4">
-        <v>23.361999999999998</v>
+        <v>-27.183</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-52.518999999999998</v>
+        <v>-57.570999999999998</v>
       </c>
       <c r="AA4">
-        <v>13.785</v>
+        <v>106.69499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37225</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>20.73</v>
+        <v>162.87799999999999</v>
       </c>
       <c r="D5">
-        <v>820.19299999999998</v>
+        <v>1956.098</v>
       </c>
       <c r="E5">
-        <v>55.624000000000002</v>
+        <v>15.795999999999999</v>
       </c>
       <c r="F5">
-        <v>175.44200000000001</v>
+        <v>500.887</v>
       </c>
       <c r="G5">
-        <v>6587.2629999999999</v>
+        <v>4055.2429999999999</v>
       </c>
       <c r="H5">
-        <v>8724.018</v>
+        <v>4714.4260000000004</v>
       </c>
       <c r="I5">
-        <v>196.79300000000001</v>
+        <v>755.726</v>
       </c>
       <c r="J5">
-        <v>3780.3629999999998</v>
+        <v>1505.2550000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,161 +1141,161 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>405.125</v>
+        <v>755.726</v>
       </c>
       <c r="O5">
-        <v>5443.7309999999998</v>
+        <v>3055.1640000000002</v>
       </c>
       <c r="P5">
-        <v>4108.9530000000004</v>
+        <v>2224.0120000000002</v>
       </c>
       <c r="Q5">
-        <v>-204.12299999999999</v>
+        <v>611.44000000000005</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37225</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>7728</v>
       </c>
       <c r="T5">
-        <v>3280.2869999999998</v>
+        <v>1659.2619999999999</v>
       </c>
       <c r="U5">
-        <v>869.90800000000002</v>
+        <v>824.01300000000003</v>
       </c>
       <c r="V5">
-        <v>-120.19199999999999</v>
+        <v>275.48899999999998</v>
       </c>
       <c r="W5">
-        <v>-7.4790000000000001</v>
+        <v>-0.81899999999999995</v>
       </c>
       <c r="X5">
-        <v>-17.866</v>
+        <v>274.77800000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-76.781999999999996</v>
+        <v>76.069000000000003</v>
       </c>
       <c r="AA5">
-        <v>20.73</v>
+        <v>162.87799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37315</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>30.277999999999999</v>
+        <v>71.891000000000005</v>
       </c>
       <c r="D6">
-        <v>952.654</v>
+        <v>1247.7439999999999</v>
       </c>
       <c r="E6">
-        <v>29.030999999999999</v>
+        <v>30.914000000000001</v>
       </c>
       <c r="F6">
-        <v>196.04900000000001</v>
+        <v>290.68</v>
       </c>
       <c r="G6">
-        <v>7232.23</v>
+        <v>3709.5160000000001</v>
       </c>
       <c r="H6">
-        <v>9154.6710000000003</v>
+        <v>4379.9489999999996</v>
       </c>
       <c r="I6">
-        <v>201.101</v>
+        <v>660.38699999999994</v>
       </c>
       <c r="J6">
-        <v>4128.3</v>
+        <v>1505.57</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-299.65899999999999</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-90.953999999999994</v>
       </c>
       <c r="N6">
-        <v>366.02100000000002</v>
+        <v>660.38699999999994</v>
       </c>
       <c r="O6">
-        <v>5851.1459999999997</v>
+        <v>2639.2420000000002</v>
       </c>
       <c r="P6">
-        <v>4538.4340000000002</v>
+        <v>1892.134</v>
       </c>
       <c r="Q6">
-        <v>236.273</v>
+        <v>-314.41199999999998</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37315</v>
       </c>
       <c r="S6">
-        <v>4062</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3303.5250000000001</v>
+        <v>1740.7070000000001</v>
       </c>
       <c r="U6">
-        <v>1108.1500000000001</v>
+        <v>483.57299999999998</v>
       </c>
       <c r="V6">
-        <v>-143.55199999999999</v>
+        <v>99.210999999999999</v>
       </c>
       <c r="W6">
-        <v>-7.4809999999999999</v>
+        <v>-0.79</v>
       </c>
       <c r="X6">
-        <v>354.35</v>
+        <v>-385.44200000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>9.2140000000000004</v>
+        <v>-10.555</v>
       </c>
       <c r="AA6">
-        <v>30.277999999999999</v>
+        <v>71.891000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37407</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>14.968</v>
+        <v>106.00700000000001</v>
       </c>
       <c r="D7">
-        <v>724.85599999999999</v>
+        <v>1538.6410000000001</v>
       </c>
       <c r="E7">
-        <v>47.744999999999997</v>
+        <v>51.222000000000001</v>
       </c>
       <c r="F7">
-        <v>48.801000000000002</v>
+        <v>292.23099999999999</v>
       </c>
       <c r="G7">
-        <v>6832.1459999999997</v>
+        <v>3857.3090000000002</v>
       </c>
       <c r="H7">
-        <v>8867.4940000000006</v>
+        <v>4556.29</v>
       </c>
       <c r="I7">
-        <v>170.21600000000001</v>
+        <v>680.51199999999994</v>
       </c>
       <c r="J7">
-        <v>4068.4520000000002</v>
+        <v>1502.7180000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-340.97699999999998</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>333.43299999999999</v>
+        <v>680.51199999999994</v>
       </c>
       <c r="O7">
-        <v>5544.241</v>
+        <v>2693.096</v>
       </c>
       <c r="P7">
-        <v>4327.9009999999998</v>
+        <v>1923.2470000000001</v>
       </c>
       <c r="Q7">
-        <v>-240.69800000000001</v>
+        <v>-39.588999999999999</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37407</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3323.2530000000002</v>
+        <v>1863.194</v>
       </c>
       <c r="U7">
-        <v>866.351</v>
+        <v>461.49700000000001</v>
       </c>
       <c r="V7">
-        <v>-132.44399999999999</v>
+        <v>-68.825000000000003</v>
       </c>
       <c r="W7">
-        <v>-7.5620000000000003</v>
+        <v>-0.79600000000000004</v>
       </c>
       <c r="X7">
-        <v>-264.95999999999998</v>
+        <v>33.618000000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-20.498000000000001</v>
+        <v>-9.4730000000000008</v>
       </c>
       <c r="AA7">
-        <v>14.968</v>
+        <v>106.00700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37499</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>452.70299999999997</v>
+        <v>142.21899999999999</v>
       </c>
       <c r="D8">
-        <v>930.15499999999997</v>
+        <v>1847.952</v>
       </c>
       <c r="E8">
-        <v>44.843000000000004</v>
+        <v>87.465000000000003</v>
       </c>
       <c r="F8">
-        <v>205.64</v>
+        <v>416.09899999999999</v>
       </c>
       <c r="G8">
-        <v>6842.5259999999998</v>
+        <v>4406.8630000000003</v>
       </c>
       <c r="H8">
-        <v>9351.2090000000007</v>
+        <v>5209.0450000000001</v>
       </c>
       <c r="I8">
-        <v>154.66399999999999</v>
+        <v>892.09799999999996</v>
       </c>
       <c r="J8">
-        <v>4064.5309999999999</v>
+        <v>1643.008</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>322.85199999999998</v>
+        <v>892.09799999999996</v>
       </c>
       <c r="O8">
-        <v>5571.3010000000004</v>
+        <v>3209.1439999999998</v>
       </c>
       <c r="P8">
-        <v>4328.0029999999997</v>
+        <v>2224.0880000000002</v>
       </c>
       <c r="Q8">
-        <v>-93.524000000000001</v>
+        <v>-400.86700000000002</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37499</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3779.9079999999999</v>
+        <v>1999.9010000000001</v>
       </c>
       <c r="U8">
-        <v>760.07</v>
+        <v>58.363</v>
       </c>
       <c r="V8">
-        <v>-81.363</v>
+        <v>-202.68700000000001</v>
       </c>
       <c r="W8">
-        <v>-7.57</v>
+        <v>-0.79700000000000004</v>
       </c>
       <c r="X8">
-        <v>-33.651000000000003</v>
+        <v>210.733</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-10.558999999999999</v>
+        <v>-35.726999999999997</v>
       </c>
       <c r="AA8">
-        <v>452.70299999999997</v>
+        <v>142.21899999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37590</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>87.108999999999995</v>
+        <v>225.012</v>
       </c>
       <c r="D9">
-        <v>1099.758</v>
+        <v>2601.183</v>
       </c>
       <c r="E9">
-        <v>46.280999999999999</v>
+        <v>41.52</v>
       </c>
       <c r="F9">
-        <v>238.46299999999999</v>
+        <v>592.59400000000005</v>
       </c>
       <c r="G9">
-        <v>7215.6540000000005</v>
+        <v>4995.71</v>
       </c>
       <c r="H9">
-        <v>9718.5</v>
+        <v>5755.6329999999998</v>
       </c>
       <c r="I9">
-        <v>169.863</v>
+        <v>876.173</v>
       </c>
       <c r="J9">
-        <v>4153.0140000000001</v>
+        <v>1585.309</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,161 +1473,161 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>808.851</v>
+        <v>969.779</v>
       </c>
       <c r="O9">
-        <v>5860.1229999999996</v>
+        <v>3526.4760000000001</v>
       </c>
       <c r="P9">
-        <v>4624.1210000000001</v>
+        <v>2455.8739999999998</v>
       </c>
       <c r="Q9">
-        <v>15.776</v>
+        <v>654.75300000000004</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37590</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>9419</v>
       </c>
       <c r="T9">
-        <v>3858.377</v>
+        <v>2229.1570000000002</v>
       </c>
       <c r="U9">
-        <v>764.68299999999999</v>
+        <v>731.16300000000001</v>
       </c>
       <c r="V9">
-        <v>-276.7</v>
+        <v>376.86900000000003</v>
       </c>
       <c r="W9">
-        <v>-7.6230000000000002</v>
+        <v>-0.79900000000000004</v>
       </c>
       <c r="X9">
-        <v>229.72200000000001</v>
+        <v>202.08500000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>74.209999999999994</v>
+        <v>104.554</v>
       </c>
       <c r="AA9">
-        <v>87.108999999999995</v>
+        <v>225.012</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37680</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>124.34399999999999</v>
+        <v>106.318</v>
       </c>
       <c r="D10">
-        <v>1350.3630000000001</v>
+        <v>1600.47</v>
       </c>
       <c r="E10">
-        <v>33.65</v>
+        <v>51.347999999999999</v>
       </c>
       <c r="F10">
-        <v>313.99900000000002</v>
+        <v>352.95299999999997</v>
       </c>
       <c r="G10">
-        <v>7963.0079999999998</v>
+        <v>4778.7070000000003</v>
       </c>
       <c r="H10">
-        <v>10362.206</v>
+        <v>5591.826</v>
       </c>
       <c r="I10">
-        <v>220.69</v>
+        <v>879.70299999999997</v>
       </c>
       <c r="J10">
-        <v>4579.5309999999999</v>
+        <v>1826.79</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-414.012</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-121.30500000000001</v>
       </c>
       <c r="N10">
-        <v>841.572</v>
+        <v>879.70299999999997</v>
       </c>
       <c r="O10">
-        <v>6360.9979999999996</v>
+        <v>3258.0369999999998</v>
       </c>
       <c r="P10">
-        <v>5037.5249999999996</v>
+        <v>2274.337</v>
       </c>
       <c r="Q10">
-        <v>465.58499999999998</v>
+        <v>-225.215</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37680</v>
       </c>
       <c r="S10">
-        <v>4722</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>4001.2080000000001</v>
+        <v>2333.7890000000002</v>
       </c>
       <c r="U10">
-        <v>1252.1769999999999</v>
+        <v>500.22699999999998</v>
       </c>
       <c r="V10">
-        <v>65.858999999999995</v>
+        <v>-19.782</v>
       </c>
       <c r="W10">
-        <v>-7.6390000000000002</v>
+        <v>-0.8</v>
       </c>
       <c r="X10">
-        <v>395.38499999999999</v>
+        <v>-192.76300000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-45.118000000000002</v>
+        <v>22.05</v>
       </c>
       <c r="AA10">
-        <v>124.34399999999999</v>
+        <v>106.318</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37772</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>57.491999999999997</v>
+        <v>160.315</v>
       </c>
       <c r="D11">
-        <v>990.24300000000005</v>
+        <v>2103.1080000000002</v>
       </c>
       <c r="E11">
-        <v>58.174999999999997</v>
+        <v>69.813999999999993</v>
       </c>
       <c r="F11">
-        <v>198.434</v>
+        <v>480.38900000000001</v>
       </c>
       <c r="G11">
-        <v>7885.6109999999999</v>
+        <v>5074.1530000000002</v>
       </c>
       <c r="H11">
-        <v>10432.269</v>
+        <v>5939.0609999999997</v>
       </c>
       <c r="I11">
-        <v>229.88</v>
+        <v>866.81299999999999</v>
       </c>
       <c r="J11">
-        <v>4713.0870000000004</v>
+        <v>1798.1980000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-514.11</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>455.82</v>
+        <v>866.81299999999999</v>
       </c>
       <c r="O11">
-        <v>6362.6289999999999</v>
+        <v>3437.5169999999998</v>
       </c>
       <c r="P11">
-        <v>5087.9520000000002</v>
+        <v>2447.3180000000002</v>
       </c>
       <c r="Q11">
-        <v>-68.626999999999995</v>
+        <v>-13.105</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37772</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4069.64</v>
+        <v>2501.5439999999999</v>
       </c>
       <c r="U11">
-        <v>1176.9159999999999</v>
+        <v>480.71899999999999</v>
       </c>
       <c r="V11">
-        <v>-321.49200000000002</v>
+        <v>-108.85599999999999</v>
       </c>
       <c r="W11">
-        <v>-7.6929999999999996</v>
+        <v>-1.1930000000000001</v>
       </c>
       <c r="X11">
-        <v>-7.181</v>
+        <v>169.96100000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-4.2160000000000002</v>
+        <v>9.83</v>
       </c>
       <c r="AA11">
-        <v>57.491999999999997</v>
+        <v>160.315</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37864</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>137.43600000000001</v>
+        <v>201.577</v>
       </c>
       <c r="D12">
-        <v>1426.8810000000001</v>
+        <v>2267.8420000000001</v>
       </c>
       <c r="E12">
-        <v>60.177999999999997</v>
+        <v>78.501000000000005</v>
       </c>
       <c r="F12">
-        <v>331.17200000000003</v>
+        <v>541.02800000000002</v>
       </c>
       <c r="G12">
-        <v>7990.0230000000001</v>
+        <v>5314.3530000000001</v>
       </c>
       <c r="H12">
-        <v>10494.156999999999</v>
+        <v>6222.0309999999999</v>
       </c>
       <c r="I12">
-        <v>228.49100000000001</v>
+        <v>906.65499999999997</v>
       </c>
       <c r="J12">
-        <v>4641.8379999999997</v>
+        <v>1521.7059999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>885.76300000000003</v>
+        <v>906.65499999999997</v>
       </c>
       <c r="O12">
-        <v>6449.3180000000002</v>
+        <v>3229.0230000000001</v>
       </c>
       <c r="P12">
-        <v>5132.9679999999998</v>
+        <v>2176.2750000000001</v>
       </c>
       <c r="Q12">
-        <v>-350.43900000000002</v>
+        <v>122.148</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37864</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4044.8389999999999</v>
+        <v>2993.0079999999998</v>
       </c>
       <c r="U12">
-        <v>819.13599999999997</v>
+        <v>599.22299999999996</v>
       </c>
       <c r="V12">
-        <v>-288.41699999999997</v>
+        <v>119.401</v>
       </c>
       <c r="W12">
-        <v>-7.6970000000000001</v>
+        <v>-0.98499999999999999</v>
       </c>
       <c r="X12">
-        <v>-203.988</v>
+        <v>6.6609999999999996</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>95.620999999999995</v>
+        <v>-1.6779999999999999</v>
       </c>
       <c r="AA12">
-        <v>137.43600000000001</v>
+        <v>201.577</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37955</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>120.66200000000001</v>
+        <v>283.18099999999998</v>
       </c>
       <c r="D13">
-        <v>1602.7670000000001</v>
+        <v>2936.1990000000001</v>
       </c>
       <c r="E13">
-        <v>58.609000000000002</v>
+        <v>54.706000000000003</v>
       </c>
       <c r="F13">
-        <v>375.94499999999999</v>
+        <v>713.10699999999997</v>
       </c>
       <c r="G13">
-        <v>8543.9830000000002</v>
+        <v>5792.2569999999996</v>
       </c>
       <c r="H13">
-        <v>11015.593000000001</v>
+        <v>6775.4319999999998</v>
       </c>
       <c r="I13">
-        <v>270.40100000000001</v>
+        <v>912.59</v>
       </c>
       <c r="J13">
-        <v>4834.0140000000001</v>
+        <v>1552.2170000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,161 +1805,161 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>871.98699999999997</v>
+        <v>912.59</v>
       </c>
       <c r="O13">
-        <v>6844.9070000000002</v>
+        <v>3499.8580000000002</v>
       </c>
       <c r="P13">
-        <v>5262.2240000000002</v>
+        <v>2292.6860000000001</v>
       </c>
       <c r="Q13">
-        <v>-319.90699999999998</v>
+        <v>609.88499999999999</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37955</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>10572</v>
       </c>
       <c r="T13">
-        <v>4170.6859999999997</v>
+        <v>3275.5740000000001</v>
       </c>
       <c r="U13">
-        <v>505.96699999999998</v>
+        <v>1201.2760000000001</v>
       </c>
       <c r="V13">
-        <v>-407.83</v>
+        <v>727.69299999999998</v>
       </c>
       <c r="W13">
-        <v>-7.7519999999999998</v>
+        <v>-19.727</v>
       </c>
       <c r="X13">
-        <v>55.890999999999998</v>
+        <v>47.252000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-15.973000000000001</v>
+        <v>-107.726</v>
       </c>
       <c r="AA13">
-        <v>120.66200000000001</v>
+        <v>283.18099999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>38046</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>164.084</v>
+        <v>139.25200000000001</v>
       </c>
       <c r="D14">
-        <v>1915.204</v>
+        <v>1862.9069999999999</v>
       </c>
       <c r="E14">
-        <v>141.786</v>
+        <v>65.135000000000005</v>
       </c>
       <c r="F14">
-        <v>485.80700000000002</v>
+        <v>432.42599999999999</v>
       </c>
       <c r="G14">
-        <v>8980.0879999999997</v>
+        <v>5288.7380000000003</v>
       </c>
       <c r="H14">
-        <v>11273.246999999999</v>
+        <v>6521.3739999999998</v>
       </c>
       <c r="I14">
-        <v>288.88299999999998</v>
+        <v>1011.346</v>
       </c>
       <c r="J14">
-        <v>4650.1729999999998</v>
+        <v>1531.846</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-265.05099999999999</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-25.815000000000001</v>
       </c>
       <c r="N14">
-        <v>840.12900000000002</v>
+        <v>1011.346</v>
       </c>
       <c r="O14">
-        <v>6645.777</v>
+        <v>3242.884</v>
       </c>
       <c r="P14">
-        <v>5024.3389999999999</v>
+        <v>2001.452</v>
       </c>
       <c r="Q14">
-        <v>398.73500000000001</v>
+        <v>-653.55899999999997</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>38046</v>
       </c>
       <c r="S14">
-        <v>5741</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>4627.47</v>
+        <v>3278.49</v>
       </c>
       <c r="U14">
-        <v>897.43899999999996</v>
+        <v>545.52200000000005</v>
       </c>
       <c r="V14">
-        <v>210.02500000000001</v>
+        <v>82.828999999999994</v>
       </c>
       <c r="W14">
-        <v>-7.77</v>
+        <v>-19.591999999999999</v>
       </c>
       <c r="X14">
-        <v>-66.495000000000005</v>
+        <v>-416.91500000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-5.7</v>
+        <v>-279.16500000000002</v>
       </c>
       <c r="AA14">
-        <v>164.084</v>
+        <v>139.25200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38138</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>78.117000000000004</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1363.095</v>
+        <v>2342.0450000000001</v>
       </c>
       <c r="E15">
-        <v>130.40199999999999</v>
+        <v>124.35</v>
       </c>
       <c r="F15">
-        <v>299.85500000000002</v>
+        <v>572.202</v>
       </c>
       <c r="G15">
-        <v>9251.2379999999994</v>
+        <v>5706.2110000000002</v>
       </c>
       <c r="H15">
-        <v>11526.788</v>
+        <v>6996.0829999999996</v>
       </c>
       <c r="I15">
-        <v>305.24599999999998</v>
+        <v>1071.3209999999999</v>
       </c>
       <c r="J15">
-        <v>4706.6610000000001</v>
+        <v>1594.0740000000001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-258.82</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1089.633</v>
+        <v>1071.3209999999999</v>
       </c>
       <c r="O15">
-        <v>6825.6310000000003</v>
+        <v>3516.107</v>
       </c>
       <c r="P15">
-        <v>5312.0510000000004</v>
+        <v>2120.09</v>
       </c>
       <c r="Q15">
-        <v>-96.206999999999994</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38138</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4701.1570000000002</v>
+        <v>3479.9760000000001</v>
       </c>
       <c r="U15">
-        <v>817.59100000000001</v>
+        <v>140.67500000000001</v>
       </c>
       <c r="V15">
-        <v>-394.60700000000003</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>-8.1690000000000005</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>223.13</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>22.023</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>78.117000000000004</v>
+        <v>201.411</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38230</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>137.71899999999999</v>
+        <v>225.22200000000001</v>
       </c>
       <c r="D16">
-        <v>1818.7449999999999</v>
+        <v>2747.3290000000002</v>
       </c>
       <c r="E16">
-        <v>208.92599999999999</v>
+        <v>153.68700000000001</v>
       </c>
       <c r="F16">
-        <v>401.33199999999999</v>
+        <v>643.39400000000001</v>
       </c>
       <c r="G16">
-        <v>9797.5650000000005</v>
+        <v>6506.2659999999996</v>
       </c>
       <c r="H16">
-        <v>11994.626</v>
+        <v>7838.6210000000001</v>
       </c>
       <c r="I16">
-        <v>342.49200000000002</v>
+        <v>1222.9280000000001</v>
       </c>
       <c r="J16">
-        <v>4933.7929999999997</v>
+        <v>1998.6569999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1316.2</v>
+        <v>1222.9280000000001</v>
       </c>
       <c r="O16">
-        <v>7103.3190000000004</v>
+        <v>4150.1899999999996</v>
       </c>
       <c r="P16">
-        <v>5727.6289999999999</v>
+        <v>2559.741</v>
       </c>
       <c r="Q16">
-        <v>85.941000000000003</v>
+        <v>257.38</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38230</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4891.3069999999998</v>
+        <v>3688.431</v>
       </c>
       <c r="U16">
-        <v>874.07500000000005</v>
+        <v>386.858</v>
       </c>
       <c r="V16">
-        <v>-327.089</v>
+        <v>36.073999999999998</v>
       </c>
       <c r="W16">
-        <v>-8.1859999999999999</v>
+        <v>-19.36</v>
       </c>
       <c r="X16">
-        <v>300.39400000000001</v>
+        <v>410.32</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>63.92</v>
+        <v>-140.982</v>
       </c>
       <c r="AA16">
-        <v>137.71899999999999</v>
+        <v>225.22200000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38321</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>177.75700000000001</v>
+        <v>379.73399999999998</v>
       </c>
       <c r="D17">
-        <v>2014.0340000000001</v>
+        <v>3549.4270000000001</v>
       </c>
       <c r="E17">
-        <v>83.42</v>
+        <v>77.489000000000004</v>
       </c>
       <c r="F17">
-        <v>474.40199999999999</v>
+        <v>906.76199999999994</v>
       </c>
       <c r="G17">
-        <v>10016.969999999999</v>
+        <v>7721.84</v>
       </c>
       <c r="H17">
-        <v>12290.076999999999</v>
+        <v>9165.2800000000007</v>
       </c>
       <c r="I17">
-        <v>383.60300000000001</v>
+        <v>554.66600000000005</v>
       </c>
       <c r="J17">
-        <v>4942.335</v>
+        <v>2021.0139999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1417.5340000000001</v>
+        <v>1098.7929999999999</v>
       </c>
       <c r="O17">
-        <v>7251.9359999999997</v>
+        <v>5069.5810000000001</v>
       </c>
       <c r="P17">
-        <v>5798.9859999999999</v>
+        <v>2917.9479999999999</v>
       </c>
       <c r="Q17">
-        <v>-126.726</v>
+        <v>979.02499999999998</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38321</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>11796</v>
       </c>
       <c r="T17">
-        <v>5038.1409999999996</v>
+        <v>4095.6990000000001</v>
       </c>
       <c r="U17">
-        <v>755.15200000000004</v>
+        <v>1310.92</v>
       </c>
       <c r="V17">
-        <v>-176.80500000000001</v>
+        <v>682.69</v>
       </c>
       <c r="W17">
-        <v>-8.2100000000000009</v>
+        <v>-21.478999999999999</v>
       </c>
       <c r="X17">
-        <v>-4.47</v>
+        <v>277.04199999999997</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-18.687000000000001</v>
+        <v>-4.6159999999999997</v>
       </c>
       <c r="AA17">
-        <v>177.75700000000001</v>
+        <v>379.73399999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38411</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>245.32300000000001</v>
+        <v>193.20599999999999</v>
       </c>
       <c r="D18">
-        <v>2583.9380000000001</v>
+        <v>2405.7310000000002</v>
       </c>
       <c r="E18">
-        <v>195.27099999999999</v>
+        <v>184.49199999999999</v>
       </c>
       <c r="F18">
-        <v>638.43299999999999</v>
+        <v>584.21400000000006</v>
       </c>
       <c r="G18">
-        <v>10829.040999999999</v>
+        <v>7220.9309999999996</v>
       </c>
       <c r="H18">
-        <v>12923.151</v>
+        <v>8753.4940000000006</v>
       </c>
       <c r="I18">
-        <v>460.79300000000001</v>
+        <v>1523.675</v>
       </c>
       <c r="J18">
-        <v>5278.3429999999998</v>
+        <v>2002.867</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2217,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-328.09699999999998</v>
       </c>
       <c r="N18">
-        <v>655.73800000000006</v>
+        <v>1523.675</v>
       </c>
       <c r="O18">
-        <v>7671.8490000000002</v>
+        <v>4591.9859999999999</v>
       </c>
       <c r="P18">
-        <v>5983.8620000000001</v>
+        <v>2626.308</v>
       </c>
       <c r="Q18">
-        <v>448.30099999999999</v>
+        <v>-813.45899999999995</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38411</v>
       </c>
       <c r="S18">
-        <v>6825</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>5251.3019999999997</v>
+        <v>4161.5079999999998</v>
       </c>
       <c r="U18">
-        <v>1191.8040000000001</v>
+        <v>509.06799999999998</v>
       </c>
       <c r="V18">
-        <v>110.01300000000001</v>
+        <v>-169.41</v>
       </c>
       <c r="W18">
-        <v>-8.2100000000000009</v>
+        <v>-21.34</v>
       </c>
       <c r="X18">
-        <v>142.38399999999999</v>
+        <v>-441.47800000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>81.676000000000002</v>
+        <v>-111.282</v>
       </c>
       <c r="AA18">
-        <v>245.32300000000001</v>
+        <v>193.20599999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38503</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>114.96299999999999</v>
+        <v>243.53700000000001</v>
       </c>
       <c r="D19">
-        <v>1644.1389999999999</v>
+        <v>2932.9740000000002</v>
       </c>
       <c r="E19">
-        <v>69.540999999999997</v>
+        <v>295.14299999999997</v>
       </c>
       <c r="F19">
-        <v>347.27600000000001</v>
+        <v>745.76499999999999</v>
       </c>
       <c r="G19">
-        <v>10989.713</v>
+        <v>8001.5379999999996</v>
       </c>
       <c r="H19">
-        <v>13120.645</v>
+        <v>9605.634</v>
       </c>
       <c r="I19">
-        <v>429.37299999999999</v>
+        <v>1793.9570000000001</v>
       </c>
       <c r="J19">
-        <v>5008.9250000000002</v>
+        <v>2073.2049999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-155.22800000000001</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2017.31</v>
+        <v>2898.1680000000001</v>
       </c>
       <c r="O19">
-        <v>7811.6549999999997</v>
+        <v>5338.1480000000001</v>
       </c>
       <c r="P19">
-        <v>6411.6909999999998</v>
+        <v>3064.0889999999999</v>
       </c>
       <c r="Q19">
-        <v>-463.38400000000001</v>
+        <v>-431.43099999999998</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38503</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5308.99</v>
+        <v>4267.4859999999999</v>
       </c>
       <c r="U19">
-        <v>734.22900000000004</v>
+        <v>77.155000000000001</v>
       </c>
       <c r="V19">
-        <v>-730.26400000000001</v>
+        <v>-355.09699999999998</v>
       </c>
       <c r="W19">
-        <v>-8.2080000000000002</v>
+        <v>-21.137</v>
       </c>
       <c r="X19">
-        <v>334.07400000000001</v>
+        <v>36.326999999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-68.144999999999996</v>
+        <v>-73.296999999999997</v>
       </c>
       <c r="AA19">
-        <v>114.96299999999999</v>
+        <v>243.53700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38595</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>183.01599999999999</v>
+        <v>337.25299999999999</v>
       </c>
       <c r="D20">
-        <v>2392.6039999999998</v>
+        <v>3498.3319999999999</v>
       </c>
       <c r="E20">
-        <v>70.442999999999998</v>
+        <v>279.904</v>
       </c>
       <c r="F20">
-        <v>530.54300000000001</v>
+        <v>927.79600000000005</v>
       </c>
       <c r="G20">
-        <v>11744.659</v>
+        <v>9206.9660000000003</v>
       </c>
       <c r="H20">
-        <v>13895.459000000001</v>
+        <v>10956.717000000001</v>
       </c>
       <c r="I20">
-        <v>489.77600000000001</v>
+        <v>2063.9430000000002</v>
       </c>
       <c r="J20">
-        <v>5703.982</v>
+        <v>2762.3090000000002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1760.059</v>
+        <v>2203.56</v>
       </c>
       <c r="O20">
-        <v>8419.74</v>
+        <v>6237.4049999999997</v>
       </c>
       <c r="P20">
-        <v>6786.2550000000001</v>
+        <v>3643.0459999999998</v>
       </c>
       <c r="Q20">
-        <v>101.727</v>
+        <v>37.817999999999998</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38595</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5475.7190000000001</v>
+        <v>4719.3119999999999</v>
       </c>
       <c r="U20">
-        <v>817.06399999999996</v>
+        <v>92.275999999999996</v>
       </c>
       <c r="V20">
-        <v>-264.26900000000001</v>
+        <v>-336.63499999999999</v>
       </c>
       <c r="W20">
-        <v>-8.2100000000000009</v>
+        <v>-21.622</v>
       </c>
       <c r="X20">
-        <v>306.13799999999998</v>
+        <v>662.37599999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-21.489000000000001</v>
+        <v>-199.738</v>
       </c>
       <c r="AA20">
-        <v>183.01599999999999</v>
+        <v>337.25299999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38686</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>223.31200000000001</v>
+        <v>581.15899999999999</v>
       </c>
       <c r="D21">
-        <v>2491.6979999999999</v>
+        <v>5029.9340000000002</v>
       </c>
       <c r="E21">
-        <v>74.603999999999999</v>
+        <v>100.85599999999999</v>
       </c>
       <c r="F21">
-        <v>567.70799999999997</v>
+        <v>1349.2650000000001</v>
       </c>
       <c r="G21">
-        <v>11961.958000000001</v>
+        <v>10639.333000000001</v>
       </c>
       <c r="H21">
-        <v>14169.375</v>
+        <v>12541.225</v>
       </c>
       <c r="I21">
-        <v>491.79500000000002</v>
+        <v>876.83</v>
       </c>
       <c r="J21">
-        <v>5682.3519999999999</v>
+        <v>2592.7719999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1861.3330000000001</v>
+        <v>1737.0319999999999</v>
       </c>
       <c r="O21">
-        <v>8494.6779999999999</v>
+        <v>7211.5709999999999</v>
       </c>
       <c r="P21">
-        <v>6859.6940000000004</v>
+        <v>3862.5540000000001</v>
       </c>
       <c r="Q21">
-        <v>-114.863</v>
+        <v>850.6</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38686</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>13687</v>
       </c>
       <c r="T21">
-        <v>5674.6970000000001</v>
+        <v>5329.6540000000005</v>
       </c>
       <c r="U21">
-        <v>705.98900000000003</v>
+        <v>909.55700000000002</v>
       </c>
       <c r="V21">
-        <v>-93.881</v>
+        <v>1184.117</v>
       </c>
       <c r="W21">
-        <v>-8.3469999999999995</v>
+        <v>-25.13</v>
       </c>
       <c r="X21">
-        <v>-12.637</v>
+        <v>66.900999999999996</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-9.3409999999999993</v>
+        <v>-69.971999999999994</v>
       </c>
       <c r="AA21">
-        <v>223.31200000000001</v>
+        <v>581.15899999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38776</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>281.60300000000001</v>
+        <v>258.05200000000002</v>
       </c>
       <c r="D22">
-        <v>2945.567</v>
+        <v>3240.6590000000001</v>
       </c>
       <c r="E22">
-        <v>229.98099999999999</v>
+        <v>220.761</v>
       </c>
       <c r="F22">
-        <v>687.78300000000002</v>
+        <v>787.65200000000004</v>
       </c>
       <c r="G22">
-        <v>12126.987999999999</v>
+        <v>10721.319</v>
       </c>
       <c r="H22">
-        <v>14419.509</v>
+        <v>12683.243</v>
       </c>
       <c r="I22">
-        <v>538.85199999999998</v>
+        <v>798.12099999999998</v>
       </c>
       <c r="J22">
-        <v>5796.8580000000002</v>
+        <v>3125.172</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,81 +2549,81 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-275.815</v>
       </c>
       <c r="N22">
-        <v>1593.9829999999999</v>
+        <v>1256.5630000000001</v>
       </c>
       <c r="O22">
-        <v>8469.4369999999999</v>
+        <v>7055.9009999999998</v>
       </c>
       <c r="P22">
-        <v>6656.1360000000004</v>
+        <v>4220.3919999999998</v>
       </c>
       <c r="Q22">
-        <v>353.15100000000001</v>
+        <v>-779.43200000000002</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38776</v>
       </c>
       <c r="S22">
-        <v>7749</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5950.0720000000001</v>
+        <v>5627.3419999999996</v>
       </c>
       <c r="U22">
-        <v>1051.6679999999999</v>
+        <v>112.03</v>
       </c>
       <c r="V22">
-        <v>668.76800000000003</v>
+        <v>-939.54300000000001</v>
       </c>
       <c r="W22">
-        <v>-8.4269999999999996</v>
+        <v>-25.314</v>
       </c>
       <c r="X22">
-        <v>-232.905</v>
+        <v>342.92</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-72.078999999999994</v>
+        <v>-163.321</v>
       </c>
       <c r="AA22">
-        <v>281.60300000000001</v>
+        <v>258.05200000000002</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>38868</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>144.08000000000001</v>
+        <v>324.74700000000001</v>
       </c>
       <c r="D23">
-        <v>1993.664</v>
+        <v>4577.5029999999997</v>
       </c>
       <c r="E23">
-        <v>61.228999999999999</v>
+        <v>155.03800000000001</v>
       </c>
       <c r="F23">
-        <v>416.35500000000002</v>
+        <v>1069.326</v>
       </c>
       <c r="G23">
-        <v>11805.885</v>
+        <v>10815.216</v>
       </c>
       <c r="H23">
-        <v>14195.188</v>
+        <v>12833.907999999999</v>
       </c>
       <c r="I23">
-        <v>500.20499999999998</v>
+        <v>817.43700000000001</v>
       </c>
       <c r="J23">
-        <v>5372.3379999999997</v>
+        <v>2693.3609999999999</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-617.9</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1899.336</v>
+        <v>2629.9630000000002</v>
       </c>
       <c r="O23">
-        <v>8101.7389999999996</v>
+        <v>6976.5820000000003</v>
       </c>
       <c r="P23">
-        <v>6574.4359999999997</v>
+        <v>4140.7669999999998</v>
       </c>
       <c r="Q23">
-        <v>-437.98599999999999</v>
+        <v>36.098999999999997</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>38868</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>6093.4489999999996</v>
+        <v>5857.326</v>
       </c>
       <c r="U23">
-        <v>629.245</v>
+        <v>164.15700000000001</v>
       </c>
       <c r="V23">
-        <v>-215.887</v>
+        <v>329.327</v>
       </c>
       <c r="W23">
-        <v>-8.5519999999999996</v>
+        <v>-25.65</v>
       </c>
       <c r="X23">
-        <v>-155.51300000000001</v>
+        <v>-165.96899999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-60.04</v>
+        <v>-104.63</v>
       </c>
       <c r="AA23">
-        <v>144.08000000000001</v>
+        <v>324.74700000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>38960</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>218.46899999999999</v>
+        <v>206.67500000000001</v>
       </c>
       <c r="D24">
-        <v>2745.8150000000001</v>
+        <v>4182.4350000000004</v>
       </c>
       <c r="E24">
-        <v>45</v>
+        <v>151.572</v>
       </c>
       <c r="F24">
-        <v>603.03</v>
+        <v>850.24</v>
       </c>
       <c r="G24">
-        <v>12381.741</v>
+        <v>10294.108</v>
       </c>
       <c r="H24">
-        <v>14847.800999999999</v>
+        <v>12501.1</v>
       </c>
       <c r="I24">
-        <v>525.73699999999997</v>
+        <v>728.99800000000005</v>
       </c>
       <c r="J24">
-        <v>5660.7820000000002</v>
+        <v>2763.6660000000002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1765.6679999999999</v>
+        <v>2077.7510000000002</v>
       </c>
       <c r="O24">
-        <v>8484.8670000000002</v>
+        <v>6497.2749999999996</v>
       </c>
       <c r="P24">
-        <v>6713.7049999999999</v>
+        <v>3778.9720000000002</v>
       </c>
       <c r="Q24">
-        <v>95.018000000000001</v>
+        <v>-59.954999999999998</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>38960</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>6362.9340000000002</v>
+        <v>6003.8249999999998</v>
       </c>
       <c r="U24">
-        <v>709.88099999999997</v>
+        <v>143.67699999999999</v>
       </c>
       <c r="V24">
-        <v>40.505000000000003</v>
+        <v>456.60199999999998</v>
       </c>
       <c r="W24">
-        <v>-8.6389999999999993</v>
+        <v>-25.207999999999998</v>
       </c>
       <c r="X24">
-        <v>137.554</v>
+        <v>-440.88900000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-81.146000000000001</v>
+        <v>-114.84399999999999</v>
       </c>
       <c r="AA24">
-        <v>218.46899999999999</v>
+        <v>206.67500000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>39051</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>235.84200000000001</v>
+        <v>-195.60499999999999</v>
       </c>
       <c r="D25">
-        <v>2833.8939999999998</v>
+        <v>4266.0649999999996</v>
       </c>
       <c r="E25">
-        <v>78.986000000000004</v>
+        <v>121.57</v>
       </c>
       <c r="F25">
-        <v>613.48500000000001</v>
+        <v>-1120.9639999999999</v>
       </c>
       <c r="G25">
-        <v>12518.457</v>
+        <v>10099.986999999999</v>
       </c>
       <c r="H25">
-        <v>14998.72</v>
+        <v>12408.266</v>
       </c>
       <c r="I25">
-        <v>554.529</v>
+        <v>751.49599999999998</v>
       </c>
       <c r="J25">
-        <v>5263.5060000000003</v>
+        <v>2613.5030000000002</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1895.24</v>
+        <v>1266.364</v>
       </c>
       <c r="O25">
-        <v>8235.8140000000003</v>
+        <v>6651.5010000000002</v>
       </c>
       <c r="P25">
-        <v>6410.5739999999996</v>
+        <v>3762.7339999999999</v>
       </c>
       <c r="Q25">
-        <v>0.61799999999999999</v>
+        <v>522.26400000000001</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>39051</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>12605</v>
       </c>
       <c r="T25">
-        <v>6762.9059999999999</v>
+        <v>5756.7650000000003</v>
       </c>
       <c r="U25">
-        <v>705.93100000000004</v>
+        <v>661.66200000000003</v>
       </c>
       <c r="V25">
-        <v>172.30199999999999</v>
+        <v>706.149</v>
       </c>
       <c r="W25">
-        <v>-9.0310000000000006</v>
+        <v>-25.123000000000001</v>
       </c>
       <c r="X25">
-        <v>-204.636</v>
+        <v>-165.267</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-4.07</v>
+        <v>-51.033000000000001</v>
       </c>
       <c r="AA25">
-        <v>235.84200000000001</v>
+        <v>-195.60499999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>39141</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>313.45299999999997</v>
+        <v>68.623000000000005</v>
       </c>
       <c r="D26">
-        <v>3376.6260000000002</v>
+        <v>2792.08</v>
       </c>
       <c r="E26">
-        <v>330.63499999999999</v>
+        <v>165.44300000000001</v>
       </c>
       <c r="F26">
-        <v>760.97199999999998</v>
+        <v>63.328000000000003</v>
       </c>
       <c r="G26">
-        <v>12705.811</v>
+        <v>9949.3960000000006</v>
       </c>
       <c r="H26">
-        <v>15361.781000000001</v>
+        <v>12035.977000000001</v>
       </c>
       <c r="I26">
-        <v>591.73699999999997</v>
+        <v>565.69000000000005</v>
       </c>
       <c r="J26">
-        <v>5198.3119999999999</v>
+        <v>2581.4940000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,81 +2881,81 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-290.75599999999997</v>
       </c>
       <c r="N26">
-        <v>784.54</v>
+        <v>1303.49</v>
       </c>
       <c r="O26">
-        <v>8150.2139999999999</v>
+        <v>6208.9939999999997</v>
       </c>
       <c r="P26">
-        <v>6275.54</v>
+        <v>3479.654</v>
       </c>
       <c r="Q26">
-        <v>513.43399999999997</v>
+        <v>-314.39499999999998</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>39141</v>
       </c>
       <c r="S26">
-        <v>8335</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>7211.567</v>
+        <v>5826.9830000000002</v>
       </c>
       <c r="U26">
-        <v>1205.5650000000001</v>
+        <v>263.74599999999998</v>
       </c>
       <c r="V26">
-        <v>510.88400000000001</v>
+        <v>-501.072</v>
       </c>
       <c r="W26">
-        <v>-9.1020000000000003</v>
+        <v>-25.173999999999999</v>
       </c>
       <c r="X26">
-        <v>-28.288</v>
+        <v>-295.01499999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-12.048</v>
+        <v>485.56099999999998</v>
       </c>
       <c r="AA26">
-        <v>313.45299999999997</v>
+        <v>68.623000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>39233</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>38.08</v>
+        <v>-244.20500000000001</v>
       </c>
       <c r="D27">
-        <v>2337.4279999999999</v>
+        <v>2875.9430000000002</v>
       </c>
       <c r="E27">
-        <v>354.71199999999999</v>
+        <v>179.80799999999999</v>
       </c>
       <c r="F27">
-        <v>452.94</v>
+        <v>-7.3049999999999997</v>
       </c>
       <c r="G27">
-        <v>12966.322</v>
+        <v>9297.1550000000007</v>
       </c>
       <c r="H27">
-        <v>16230.112999999999</v>
+        <v>11542.07</v>
       </c>
       <c r="I27">
-        <v>579.36199999999997</v>
+        <v>499.83199999999999</v>
       </c>
       <c r="J27">
-        <v>5391.0259999999998</v>
+        <v>2585.2860000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-562.56899999999996</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2351.0819999999999</v>
+        <v>523.63199999999995</v>
       </c>
       <c r="O27">
-        <v>8974.3379999999997</v>
+        <v>5902.26</v>
       </c>
       <c r="P27">
-        <v>6964.7420000000002</v>
+        <v>3445.6570000000002</v>
       </c>
       <c r="Q27">
-        <v>-400.46899999999999</v>
+        <v>-61.911000000000001</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>39233</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7255.7749999999996</v>
+        <v>5639.81</v>
       </c>
       <c r="U27">
-        <v>809.75199999999995</v>
+        <v>234.256</v>
       </c>
       <c r="V27">
-        <v>79.323999999999998</v>
+        <v>80.367999999999995</v>
       </c>
       <c r="W27">
-        <v>-9.4</v>
+        <v>-25.38</v>
       </c>
       <c r="X27">
-        <v>286.28899999999999</v>
+        <v>-83.503</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-159.01400000000001</v>
+        <v>-64.534999999999997</v>
       </c>
       <c r="AA27">
-        <v>38.08</v>
+        <v>-244.20500000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>39325</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>213.64500000000001</v>
+        <v>-513.85199999999998</v>
       </c>
       <c r="D28">
-        <v>3261.8919999999998</v>
+        <v>2341.8530000000001</v>
       </c>
       <c r="E28">
-        <v>562.66499999999996</v>
+        <v>193.77099999999999</v>
       </c>
       <c r="F28">
-        <v>668.35400000000004</v>
+        <v>7.008</v>
       </c>
       <c r="G28">
-        <v>13435.678</v>
+        <v>8233.01</v>
       </c>
       <c r="H28">
-        <v>16754.505000000001</v>
+        <v>10432.453</v>
       </c>
       <c r="I28">
-        <v>615.9</v>
+        <v>419.91399999999999</v>
       </c>
       <c r="J28">
-        <v>5774.7539999999999</v>
+        <v>2571.2910000000002</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2401.0590000000002</v>
+        <v>419.91399999999999</v>
       </c>
       <c r="O28">
-        <v>9317.4989999999998</v>
+        <v>5315.8209999999999</v>
       </c>
       <c r="P28">
-        <v>7343.0630000000001</v>
+        <v>3123.6080000000002</v>
       </c>
       <c r="Q28">
-        <v>54.908000000000001</v>
+        <v>-150.9</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>39325</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>7437.0060000000003</v>
+        <v>5116.6319999999996</v>
       </c>
       <c r="U28">
-        <v>876.53200000000004</v>
+        <v>128.04900000000001</v>
       </c>
       <c r="V28">
-        <v>-239.083</v>
+        <v>301.10300000000001</v>
       </c>
       <c r="W28">
-        <v>-9.3780000000000001</v>
+        <v>-25.280999999999999</v>
       </c>
       <c r="X28">
-        <v>401.44499999999999</v>
+        <v>-385.637</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-114.07</v>
+        <v>-71.771000000000001</v>
       </c>
       <c r="AA28">
-        <v>213.64500000000001</v>
+        <v>-513.85199999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>39416</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>249.16499999999999</v>
+        <v>-1251.6469999999999</v>
       </c>
       <c r="D29">
-        <v>3261.4760000000001</v>
+        <v>2176.9050000000002</v>
       </c>
       <c r="E29">
-        <v>158.10400000000001</v>
+        <v>147.81399999999999</v>
       </c>
       <c r="F29">
-        <v>710.42</v>
+        <v>-70.617000000000004</v>
       </c>
       <c r="G29">
-        <v>13514.499</v>
+        <v>7131.8109999999997</v>
       </c>
       <c r="H29">
-        <v>16939.373</v>
+        <v>9102.7469999999994</v>
       </c>
       <c r="I29">
-        <v>653.01400000000001</v>
+        <v>376.13400000000001</v>
       </c>
       <c r="J29">
-        <v>5546.82</v>
+        <v>2295.4360000000001</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2189.8789999999999</v>
+        <v>376.13400000000001</v>
       </c>
       <c r="O29">
-        <v>9279.9130000000005</v>
+        <v>5252.1</v>
       </c>
       <c r="P29">
-        <v>6862.9620000000004</v>
+        <v>2836.873</v>
       </c>
       <c r="Q29">
-        <v>-146.24199999999999</v>
+        <v>544.08100000000002</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>39416</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>6934</v>
       </c>
       <c r="T29">
-        <v>7659.46</v>
+        <v>3850.6469999999999</v>
       </c>
       <c r="U29">
-        <v>722.71</v>
+        <v>642.46699999999998</v>
       </c>
       <c r="V29">
-        <v>487.47199999999998</v>
+        <v>564.11400000000003</v>
       </c>
       <c r="W29">
-        <v>-9.4030000000000005</v>
+        <v>-25.288</v>
       </c>
       <c r="X29">
-        <v>-549.69899999999996</v>
+        <v>29.533999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-68.796999999999997</v>
+        <v>-60.482999999999997</v>
       </c>
       <c r="AA29">
-        <v>249.16499999999999</v>
+        <v>-1251.6469999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>39507</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>309.58999999999997</v>
+        <v>-88.215999999999994</v>
       </c>
       <c r="D30">
-        <v>3785.569</v>
+        <v>1062.913</v>
       </c>
       <c r="E30">
-        <v>126.74299999999999</v>
+        <v>134.24100000000001</v>
       </c>
       <c r="F30">
-        <v>809.01800000000003</v>
+        <v>-15.929</v>
       </c>
       <c r="G30">
-        <v>15513.516</v>
+        <v>6414.915</v>
       </c>
       <c r="H30">
-        <v>18745.034</v>
+        <v>8515.2009999999991</v>
       </c>
       <c r="I30">
-        <v>751.69500000000005</v>
+        <v>243.30500000000001</v>
       </c>
       <c r="J30">
-        <v>7035.0839999999998</v>
+        <v>2279.4969999999998</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3213,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-293.41699999999997</v>
       </c>
       <c r="N30">
-        <v>974.01400000000001</v>
+        <v>243.30500000000001</v>
       </c>
       <c r="O30">
-        <v>10758.902</v>
+        <v>4811.6670000000004</v>
       </c>
       <c r="P30">
-        <v>7972.5150000000003</v>
+        <v>2573.489</v>
       </c>
       <c r="Q30">
-        <v>1813.146</v>
+        <v>380.94600000000003</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>39507</v>
       </c>
       <c r="S30">
-        <v>9111</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>7986.1319999999996</v>
+        <v>3703.5340000000001</v>
       </c>
       <c r="U30">
-        <v>2533.462</v>
+        <v>1088.1410000000001</v>
       </c>
       <c r="V30">
-        <v>669.15099999999995</v>
+        <v>844.52300000000002</v>
       </c>
       <c r="W30">
-        <v>-9.4269999999999996</v>
+        <v>-25.725000000000001</v>
       </c>
       <c r="X30">
-        <v>1056.261</v>
+        <v>-332.95699999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-10.798</v>
+        <v>-131.578</v>
       </c>
       <c r="AA30">
-        <v>309.58999999999997</v>
+        <v>-88.215999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>39599</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>136.215</v>
+        <v>-120.916</v>
       </c>
       <c r="D31">
-        <v>2980.7910000000002</v>
+        <v>1127.9159999999999</v>
       </c>
       <c r="E31">
-        <v>266.84800000000001</v>
+        <v>111.124</v>
       </c>
       <c r="F31">
-        <v>539.88</v>
+        <v>5.3289999999999997</v>
       </c>
       <c r="G31">
-        <v>20533.802</v>
+        <v>6150.7179999999998</v>
       </c>
       <c r="H31">
-        <v>27944.023000000001</v>
+        <v>8253.8590000000004</v>
       </c>
       <c r="I31">
-        <v>923.85400000000004</v>
+        <v>236.881</v>
       </c>
       <c r="J31">
-        <v>9635.9419999999991</v>
+        <v>2310.4940000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-460.05900000000003</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3208.752</v>
+        <v>236.881</v>
       </c>
       <c r="O31">
-        <v>14769.939</v>
+        <v>4673.5200000000004</v>
       </c>
       <c r="P31">
-        <v>11593.659</v>
+        <v>2637.7669999999998</v>
       </c>
       <c r="Q31">
-        <v>-1609.87</v>
+        <v>-166.09100000000001</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>39599</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>13174.084000000001</v>
+        <v>3580.3389999999999</v>
       </c>
       <c r="U31">
-        <v>863.73599999999999</v>
+        <v>882.43299999999999</v>
       </c>
       <c r="V31">
-        <v>-155.529</v>
+        <v>-77.727999999999994</v>
       </c>
       <c r="W31">
-        <v>-9.6170000000000009</v>
+        <v>-25.686</v>
       </c>
       <c r="X31">
-        <v>-450.34899999999999</v>
+        <v>-39.710999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>92.042000000000002</v>
+        <v>-49.414999999999999</v>
       </c>
       <c r="AA31">
-        <v>136.215</v>
+        <v>-120.916</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>39691</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>310.25700000000001</v>
+        <v>-88.963999999999999</v>
       </c>
       <c r="D32">
-        <v>5459.0609999999997</v>
+        <v>1106.54</v>
       </c>
       <c r="E32">
-        <v>268.68299999999999</v>
+        <v>94.966999999999999</v>
       </c>
       <c r="F32">
-        <v>1159.367</v>
+        <v>5.7089999999999996</v>
       </c>
       <c r="G32">
-        <v>20800.004000000001</v>
+        <v>6193.201</v>
       </c>
       <c r="H32">
-        <v>28351.109</v>
+        <v>8226.9599999999991</v>
       </c>
       <c r="I32">
-        <v>990.83399999999995</v>
+        <v>260.66699999999997</v>
       </c>
       <c r="J32">
-        <v>9583.6190000000006</v>
+        <v>2338.6970000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3064.9929999999999</v>
+        <v>260.66699999999997</v>
       </c>
       <c r="O32">
-        <v>14652.239</v>
+        <v>4620.0820000000003</v>
       </c>
       <c r="P32">
-        <v>11300.243</v>
+        <v>2532.8620000000001</v>
       </c>
       <c r="Q32">
-        <v>112.137</v>
+        <v>-70.632999999999996</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>39691</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>13698.87</v>
+        <v>3606.8780000000002</v>
       </c>
       <c r="U32">
-        <v>990.86199999999997</v>
+        <v>857.05</v>
       </c>
       <c r="V32">
-        <v>175.04300000000001</v>
+        <v>87.572999999999993</v>
       </c>
       <c r="W32">
-        <v>-13.163</v>
+        <v>-25.661999999999999</v>
       </c>
       <c r="X32">
-        <v>-115.584</v>
+        <v>-81.225999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>50.247999999999998</v>
+        <v>-75.942999999999998</v>
       </c>
       <c r="AA32">
-        <v>310.25700000000001</v>
+        <v>-88.963999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39782</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>453.21100000000001</v>
+        <v>-810.98900000000003</v>
       </c>
       <c r="D33">
-        <v>5672.5690000000004</v>
+        <v>1278.048</v>
       </c>
       <c r="E33">
-        <v>236.923</v>
+        <v>18.518000000000001</v>
       </c>
       <c r="F33">
-        <v>1209.8620000000001</v>
+        <v>35.539000000000001</v>
       </c>
       <c r="G33">
-        <v>20750.777999999998</v>
+        <v>6470.7330000000002</v>
       </c>
       <c r="H33">
-        <v>28289.395</v>
+        <v>7424.8980000000001</v>
       </c>
       <c r="I33">
-        <v>1109.163</v>
+        <v>246.727</v>
       </c>
       <c r="J33">
-        <v>9255.6929999999993</v>
+        <v>2544.9349999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2828.623</v>
+        <v>246.727</v>
       </c>
       <c r="O33">
-        <v>14173.215</v>
+        <v>4636.1450000000004</v>
       </c>
       <c r="P33">
-        <v>10614.004999999999</v>
+        <v>2770.7179999999998</v>
       </c>
       <c r="Q33">
-        <v>-112.809</v>
+        <v>264.00599999999997</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39782</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>4704</v>
       </c>
       <c r="T33">
-        <v>14116.18</v>
+        <v>2788.7530000000002</v>
       </c>
       <c r="U33">
-        <v>883.36500000000001</v>
+        <v>1091.4680000000001</v>
       </c>
       <c r="V33">
-        <v>706.90300000000002</v>
+        <v>246.46600000000001</v>
       </c>
       <c r="W33">
-        <v>-13.205</v>
+        <v>-6.4139999999999997</v>
       </c>
       <c r="X33">
-        <v>-752.15200000000004</v>
+        <v>26.991</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-53.593000000000004</v>
+        <v>-15.163</v>
       </c>
       <c r="AA33">
-        <v>453.21100000000001</v>
+        <v>-810.98900000000003</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39872</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>796.14800000000002</v>
+        <v>-155.929</v>
       </c>
       <c r="D34">
-        <v>6459.21</v>
+        <v>593.06299999999999</v>
       </c>
       <c r="E34">
-        <v>186.874</v>
+        <v>99.870999999999995</v>
       </c>
       <c r="F34">
-        <v>1392.7850000000001</v>
+        <v>-26.361000000000001</v>
       </c>
       <c r="G34">
-        <v>21284.918000000001</v>
+        <v>6211.9350000000004</v>
       </c>
       <c r="H34">
-        <v>28566.181</v>
+        <v>7170.1109999999999</v>
       </c>
       <c r="I34">
-        <v>1325.3979999999999</v>
+        <v>203.77600000000001</v>
       </c>
       <c r="J34">
-        <v>8558.3559999999998</v>
+        <v>2292.6379999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3545,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-20.02</v>
       </c>
       <c r="N34">
-        <v>1715.2070000000001</v>
+        <v>485.25299999999999</v>
       </c>
       <c r="O34">
-        <v>13883.224</v>
+        <v>4538.4639999999999</v>
       </c>
       <c r="P34">
-        <v>10117.058000000001</v>
+        <v>2804.4520000000002</v>
       </c>
       <c r="Q34">
-        <v>512.43399999999997</v>
+        <v>11.683999999999999</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39872</v>
       </c>
       <c r="S34">
-        <v>11626</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>14682.957</v>
+        <v>2631.6469999999999</v>
       </c>
       <c r="U34">
-        <v>1369.973</v>
+        <v>1099.864</v>
       </c>
       <c r="V34">
-        <v>965.33</v>
+        <v>80.194999999999993</v>
       </c>
       <c r="W34">
-        <v>-13.173999999999999</v>
+        <v>-6.4119999999999999</v>
       </c>
       <c r="X34">
-        <v>-877.81600000000003</v>
+        <v>-11.792</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>100.40300000000001</v>
+        <v>-57.710999999999999</v>
       </c>
       <c r="AA34">
-        <v>796.14800000000002</v>
+        <v>-155.929</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>39964</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>239.91</v>
+        <v>-125.185</v>
       </c>
       <c r="D35">
-        <v>3868.0819999999999</v>
+        <v>891.85299999999995</v>
       </c>
       <c r="E35">
-        <v>297.08699999999999</v>
+        <v>77.225999999999999</v>
       </c>
       <c r="F35">
-        <v>745.36699999999996</v>
+        <v>24.033000000000001</v>
       </c>
       <c r="G35">
-        <v>21409.42</v>
+        <v>6457.5039999999999</v>
       </c>
       <c r="H35">
-        <v>28749.925999999999</v>
+        <v>7282.9870000000001</v>
       </c>
       <c r="I35">
-        <v>1195.635</v>
+        <v>199.596</v>
       </c>
       <c r="J35">
-        <v>8174.5140000000001</v>
+        <v>2599.5329999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-601.63800000000003</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2687.828</v>
+        <v>541.54899999999998</v>
       </c>
       <c r="O35">
-        <v>13856.231</v>
+        <v>4642.482</v>
       </c>
       <c r="P35">
-        <v>10381.632</v>
+        <v>2941.5610000000001</v>
       </c>
       <c r="Q35">
-        <v>-533.38900000000001</v>
+        <v>364.22500000000002</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>39964</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>14893.695</v>
+        <v>2640.5050000000001</v>
       </c>
       <c r="U35">
-        <v>881.98800000000006</v>
+        <v>1447.011</v>
       </c>
       <c r="V35">
-        <v>-524.423</v>
+        <v>172.53399999999999</v>
       </c>
       <c r="W35">
-        <v>-12.86</v>
+        <v>-6.8440000000000003</v>
       </c>
       <c r="X35">
-        <v>69.022000000000006</v>
+        <v>232.88800000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-67.91</v>
+        <v>-42.399000000000001</v>
       </c>
       <c r="AA35">
-        <v>239.91</v>
+        <v>-125.185</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>40056</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>421.47199999999998</v>
+        <v>-171.60499999999999</v>
       </c>
       <c r="D36">
-        <v>5562.89</v>
+        <v>720.73</v>
       </c>
       <c r="E36">
-        <v>383.86500000000001</v>
+        <v>110.983</v>
       </c>
       <c r="F36">
-        <v>1111.444</v>
+        <v>8.6929999999999996</v>
       </c>
       <c r="G36">
-        <v>22279.588</v>
+        <v>6104.9740000000002</v>
       </c>
       <c r="H36">
-        <v>29583.063999999998</v>
+        <v>7088.3389999999999</v>
       </c>
       <c r="I36">
-        <v>1243.6379999999999</v>
+        <v>216.239</v>
       </c>
       <c r="J36">
-        <v>8346.1980000000003</v>
+        <v>2645.8319999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2707.145</v>
+        <v>380.70699999999999</v>
       </c>
       <c r="O36">
-        <v>14336.529</v>
+        <v>4510.9880000000003</v>
       </c>
       <c r="P36">
-        <v>10659.798000000001</v>
+        <v>2810.4009999999998</v>
       </c>
       <c r="Q36">
-        <v>-41.518000000000001</v>
+        <v>-96.278999999999996</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>40056</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>15246.535</v>
+        <v>2577.3510000000001</v>
       </c>
       <c r="U36">
-        <v>821.649</v>
+        <v>1336.739</v>
       </c>
       <c r="V36">
-        <v>94.533000000000001</v>
+        <v>134.18700000000001</v>
       </c>
       <c r="W36">
-        <v>-13.016999999999999</v>
+        <v>-7.0039999999999996</v>
       </c>
       <c r="X36">
-        <v>-122.453</v>
+        <v>-93.802999999999997</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-0.20200000000000001</v>
+        <v>-137.386</v>
       </c>
       <c r="AA36">
-        <v>421.47199999999998</v>
+        <v>-171.60499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40147</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>513.36599999999999</v>
+        <v>35.572000000000003</v>
       </c>
       <c r="D37">
-        <v>5857.058</v>
+        <v>913.74099999999999</v>
       </c>
       <c r="E37">
-        <v>373.43400000000003</v>
+        <v>77.941999999999993</v>
       </c>
       <c r="F37">
-        <v>1185.692</v>
+        <v>473.75799999999998</v>
       </c>
       <c r="G37">
-        <v>22159.004000000001</v>
+        <v>6373.2830000000004</v>
       </c>
       <c r="H37">
-        <v>29459.447</v>
+        <v>7314.7910000000002</v>
       </c>
       <c r="I37">
-        <v>1269.6220000000001</v>
+        <v>169.596</v>
       </c>
       <c r="J37">
-        <v>8526.4390000000003</v>
+        <v>2761.3519999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,244 +3797,244 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2232.9859999999999</v>
+        <v>169.596</v>
       </c>
       <c r="O37">
-        <v>13993.5</v>
+        <v>4726.777</v>
       </c>
       <c r="P37">
-        <v>10282.365</v>
+        <v>2978.9090000000001</v>
       </c>
       <c r="Q37">
-        <v>48.792999999999999</v>
+        <v>-25.614000000000001</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40147</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>3835</v>
       </c>
       <c r="T37">
-        <v>15465.947</v>
+        <v>2588.0140000000001</v>
       </c>
       <c r="U37">
-        <v>817.245</v>
+        <v>1330.6030000000001</v>
       </c>
       <c r="V37">
-        <v>728.18299999999999</v>
+        <v>33.927</v>
       </c>
       <c r="W37">
-        <v>-12.898999999999999</v>
+        <v>-7.3280000000000003</v>
       </c>
       <c r="X37">
-        <v>-731.61900000000003</v>
+        <v>-19</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>16.038</v>
+        <v>-47.607999999999997</v>
       </c>
       <c r="AA37">
-        <v>513.36599999999999</v>
+        <v>35.572000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>40237</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>674.30399999999997</v>
+        <v>-6.5229999999999997</v>
       </c>
       <c r="D38">
-        <v>6971.5309999999999</v>
+        <v>574.44200000000001</v>
       </c>
       <c r="E38">
-        <v>202.8</v>
+        <v>98.798000000000002</v>
       </c>
       <c r="F38">
-        <v>1474.9770000000001</v>
+        <v>16.808</v>
       </c>
       <c r="G38">
-        <v>22202.288</v>
+        <v>6995.5839999999998</v>
       </c>
       <c r="H38">
-        <v>29359.510999999999</v>
+        <v>7981.7470000000003</v>
       </c>
       <c r="I38">
-        <v>1069.1790000000001</v>
+        <v>174.01900000000001</v>
       </c>
       <c r="J38">
-        <v>7776.6379999999999</v>
+        <v>2910.8910000000001</v>
       </c>
       <c r="K38">
-        <v>36.125</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-188.565</v>
       </c>
       <c r="N38">
-        <v>1414.62</v>
+        <v>685.27300000000002</v>
       </c>
       <c r="O38">
-        <v>13325.681</v>
+        <v>5003.3829999999998</v>
       </c>
       <c r="P38">
-        <v>9573.6959999999999</v>
+        <v>3422.2190000000001</v>
       </c>
       <c r="Q38">
-        <v>398.82900000000001</v>
+        <v>-544.23400000000004</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>40237</v>
       </c>
       <c r="S38">
-        <v>10106</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>16033.83</v>
+        <v>2978.364</v>
       </c>
       <c r="U38">
-        <v>1211.883</v>
+        <v>786.38599999999997</v>
       </c>
       <c r="V38">
-        <v>1184.05</v>
+        <v>89.415999999999997</v>
       </c>
       <c r="W38">
-        <v>-12.678000000000001</v>
+        <v>-7.3860000000000001</v>
       </c>
       <c r="X38">
-        <v>-844.17399999999998</v>
+        <v>-209.541</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>55.548000000000002</v>
+        <v>-47.591000000000001</v>
       </c>
       <c r="AA38">
-        <v>674.30399999999997</v>
+        <v>-6.5229999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>40329</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>398.452</v>
+        <v>39.719000000000001</v>
       </c>
       <c r="D39">
-        <v>4505.3370000000004</v>
+        <v>814.48099999999999</v>
       </c>
       <c r="E39">
-        <v>392.13600000000002</v>
+        <v>62.177999999999997</v>
       </c>
       <c r="F39">
-        <v>895.15700000000004</v>
+        <v>179.82300000000001</v>
       </c>
       <c r="G39">
-        <v>22022.309000000001</v>
+        <v>7178.84</v>
       </c>
       <c r="H39">
-        <v>29173.699000000001</v>
+        <v>8248.8799999999992</v>
       </c>
       <c r="I39">
-        <v>1180.7080000000001</v>
+        <v>173.50899999999999</v>
       </c>
       <c r="J39">
-        <v>7214.2809999999999</v>
+        <v>3246.48</v>
       </c>
       <c r="K39">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-848.85199999999998</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2459.7159999999999</v>
+        <v>605.12900000000002</v>
       </c>
       <c r="O39">
-        <v>12980.322</v>
+        <v>5219.9470000000001</v>
       </c>
       <c r="P39">
-        <v>9120.8279999999995</v>
+        <v>3678.1750000000002</v>
       </c>
       <c r="Q39">
-        <v>-393.649</v>
+        <v>343.86099999999999</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>40329</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>16193.377</v>
+        <v>3028.933</v>
       </c>
       <c r="U39">
-        <v>805.77</v>
+        <v>1150.6300000000001</v>
       </c>
       <c r="V39">
-        <v>382.976</v>
+        <v>185.25800000000001</v>
       </c>
       <c r="W39">
-        <v>-39.24</v>
+        <v>-7.4009999999999998</v>
       </c>
       <c r="X39">
-        <v>-789.80399999999997</v>
+        <v>177.68799999999999</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>13.611000000000001</v>
+        <v>-59.210999999999999</v>
       </c>
       <c r="AA39">
-        <v>398.452</v>
+        <v>39.719000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40421</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>517.40599999999995</v>
+        <v>30.035</v>
       </c>
       <c r="D40">
-        <v>5287.3729999999996</v>
+        <v>824.97500000000002</v>
       </c>
       <c r="E40">
-        <v>386.67700000000002</v>
+        <v>60.86</v>
       </c>
       <c r="F40">
-        <v>1148.4770000000001</v>
+        <v>85.43</v>
       </c>
       <c r="G40">
-        <v>22192.284</v>
+        <v>7088.6629999999996</v>
       </c>
       <c r="H40">
-        <v>29309.025000000001</v>
+        <v>8279.8989999999994</v>
       </c>
       <c r="I40">
-        <v>1033.558</v>
+        <v>200.01499999999999</v>
       </c>
       <c r="J40">
-        <v>6287.0619999999999</v>
+        <v>3369.8789999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2616.902</v>
+        <v>503.40199999999999</v>
       </c>
       <c r="O40">
-        <v>12676.401</v>
+        <v>5211.4759999999997</v>
       </c>
       <c r="P40">
-        <v>8937.3819999999996</v>
+        <v>3673.3409999999999</v>
       </c>
       <c r="Q40">
-        <v>581.84</v>
+        <v>-219.53100000000001</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40421</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>16632.624</v>
+        <v>3068.4229999999998</v>
       </c>
       <c r="U40">
-        <v>1417.692</v>
+        <v>927.81</v>
       </c>
       <c r="V40">
-        <v>927.827</v>
+        <v>-85.587000000000003</v>
       </c>
       <c r="W40">
-        <v>-38.905000000000001</v>
+        <v>-7.3920000000000003</v>
       </c>
       <c r="X40">
-        <v>-158.76599999999999</v>
+        <v>-19.978000000000002</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-202.55799999999999</v>
+        <v>-105.288</v>
       </c>
       <c r="AA40">
-        <v>517.40599999999995</v>
+        <v>30.035</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>666.41800000000001</v>
+        <v>32.03</v>
       </c>
       <c r="D41">
-        <v>5870.2539999999999</v>
+        <v>860.12400000000002</v>
       </c>
       <c r="E41">
-        <v>382.68299999999999</v>
+        <v>38.252000000000002</v>
       </c>
       <c r="F41">
-        <v>1410.2080000000001</v>
+        <v>76.866</v>
       </c>
       <c r="G41">
-        <v>22134.133999999998</v>
+        <v>7404.1170000000002</v>
       </c>
       <c r="H41">
-        <v>29315.285</v>
+        <v>8787.8510000000006</v>
       </c>
       <c r="I41">
-        <v>1140.3409999999999</v>
+        <v>168.006</v>
       </c>
       <c r="J41">
-        <v>6880.4170000000004</v>
+        <v>3880.4560000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,129 +4129,3449 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1833.0530000000001</v>
+        <v>363.685</v>
       </c>
       <c r="O41">
-        <v>12034.94</v>
+        <v>5593.4679999999998</v>
       </c>
       <c r="P41">
-        <v>8138.5940000000001</v>
+        <v>4152.134</v>
       </c>
       <c r="Q41">
-        <v>575.19600000000003</v>
+        <v>356.601</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>4087</v>
       </c>
       <c r="T41">
-        <v>17280.345000000001</v>
+        <v>3194.3829999999998</v>
       </c>
       <c r="U41">
-        <v>1991.6890000000001</v>
+        <v>1283.6590000000001</v>
       </c>
       <c r="V41">
-        <v>1586.0409999999999</v>
+        <v>85.141000000000005</v>
       </c>
       <c r="W41">
-        <v>-38.966999999999999</v>
+        <v>-7.3979999999999997</v>
       </c>
       <c r="X41">
-        <v>-917.42</v>
+        <v>387.67099999999999</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-87.804000000000002</v>
+        <v>-51.863999999999997</v>
       </c>
       <c r="AA41">
-        <v>666.41800000000001</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>40602</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>27.405999999999999</v>
+      </c>
+      <c r="D42">
+        <v>558.04499999999996</v>
+      </c>
+      <c r="E42">
+        <v>61.258000000000003</v>
+      </c>
+      <c r="F42">
+        <v>22.215</v>
+      </c>
+      <c r="G42">
+        <v>6963.2579999999998</v>
+      </c>
+      <c r="H42">
+        <v>8580.4840000000004</v>
+      </c>
+      <c r="I42">
+        <v>147.04599999999999</v>
+      </c>
+      <c r="J42">
+        <v>3768.16</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-177.17699999999999</v>
+      </c>
+      <c r="N42">
+        <v>260.25299999999999</v>
+      </c>
+      <c r="O42">
+        <v>5347.4979999999996</v>
+      </c>
+      <c r="P42">
+        <v>4003.7060000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-187.54900000000001</v>
+      </c>
+      <c r="R42">
+        <v>40602</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>3232.9859999999999</v>
+      </c>
+      <c r="U42">
+        <v>1096.961</v>
+      </c>
+      <c r="V42">
+        <v>9.6750000000000007</v>
+      </c>
+      <c r="W42">
+        <v>-7.4690000000000003</v>
+      </c>
+      <c r="X42">
+        <v>-195.08799999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-33.119</v>
+      </c>
+      <c r="AA42">
+        <v>27.405999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>13.785</v>
+      </c>
+      <c r="D43">
+        <v>764.49300000000005</v>
+      </c>
+      <c r="E43">
+        <v>66.981999999999999</v>
+      </c>
+      <c r="F43">
+        <v>145.02000000000001</v>
+      </c>
+      <c r="G43">
+        <v>6913.5529999999999</v>
+      </c>
+      <c r="H43">
+        <v>8699.2289999999994</v>
+      </c>
+      <c r="I43">
+        <v>168.398</v>
+      </c>
+      <c r="J43">
+        <v>3743.4119999999998</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>281.60500000000002</v>
+      </c>
+      <c r="O43">
+        <v>5439.9809999999998</v>
+      </c>
+      <c r="P43">
+        <v>4046.1210000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-75.132000000000005</v>
+      </c>
+      <c r="R43">
+        <v>40694</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3259.248</v>
+      </c>
+      <c r="U43">
+        <v>1014.804</v>
+      </c>
+      <c r="V43">
+        <v>-5.0659999999999998</v>
+      </c>
+      <c r="W43">
+        <v>-7.4770000000000003</v>
+      </c>
+      <c r="X43">
+        <v>23.361999999999998</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-52.518999999999998</v>
+      </c>
+      <c r="AA43">
+        <v>13.785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>20.73</v>
+      </c>
+      <c r="D44">
+        <v>820.19299999999998</v>
+      </c>
+      <c r="E44">
+        <v>55.624000000000002</v>
+      </c>
+      <c r="F44">
+        <v>175.44200000000001</v>
+      </c>
+      <c r="G44">
+        <v>6587.2629999999999</v>
+      </c>
+      <c r="H44">
+        <v>8724.018</v>
+      </c>
+      <c r="I44">
+        <v>196.79300000000001</v>
+      </c>
+      <c r="J44">
+        <v>3780.3629999999998</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>405.125</v>
+      </c>
+      <c r="O44">
+        <v>5443.7309999999998</v>
+      </c>
+      <c r="P44">
+        <v>4108.9530000000004</v>
+      </c>
+      <c r="Q44">
+        <v>-204.12299999999999</v>
+      </c>
+      <c r="R44">
+        <v>40786</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3280.2869999999998</v>
+      </c>
+      <c r="U44">
+        <v>869.90800000000002</v>
+      </c>
+      <c r="V44">
+        <v>-120.19199999999999</v>
+      </c>
+      <c r="W44">
+        <v>-7.4790000000000001</v>
+      </c>
+      <c r="X44">
+        <v>-17.866</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-76.781999999999996</v>
+      </c>
+      <c r="AA44">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>30.277999999999999</v>
+      </c>
+      <c r="D45">
+        <v>952.654</v>
+      </c>
+      <c r="E45">
+        <v>29.030999999999999</v>
+      </c>
+      <c r="F45">
+        <v>196.04900000000001</v>
+      </c>
+      <c r="G45">
+        <v>7232.23</v>
+      </c>
+      <c r="H45">
+        <v>9154.6710000000003</v>
+      </c>
+      <c r="I45">
+        <v>201.101</v>
+      </c>
+      <c r="J45">
+        <v>4128.3</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>366.02100000000002</v>
+      </c>
+      <c r="O45">
+        <v>5851.1459999999997</v>
+      </c>
+      <c r="P45">
+        <v>4538.4340000000002</v>
+      </c>
+      <c r="Q45">
+        <v>236.273</v>
+      </c>
+      <c r="R45">
+        <v>40877</v>
+      </c>
+      <c r="S45">
+        <v>4062</v>
+      </c>
+      <c r="T45">
+        <v>3303.5250000000001</v>
+      </c>
+      <c r="U45">
+        <v>1108.1500000000001</v>
+      </c>
+      <c r="V45">
+        <v>-143.55199999999999</v>
+      </c>
+      <c r="W45">
+        <v>-7.4809999999999999</v>
+      </c>
+      <c r="X45">
+        <v>354.35</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>9.2140000000000004</v>
+      </c>
+      <c r="AA45">
+        <v>30.277999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>14.968</v>
+      </c>
+      <c r="D46">
+        <v>724.85599999999999</v>
+      </c>
+      <c r="E46">
+        <v>47.744999999999997</v>
+      </c>
+      <c r="F46">
+        <v>48.801000000000002</v>
+      </c>
+      <c r="G46">
+        <v>6832.1459999999997</v>
+      </c>
+      <c r="H46">
+        <v>8867.4940000000006</v>
+      </c>
+      <c r="I46">
+        <v>170.21600000000001</v>
+      </c>
+      <c r="J46">
+        <v>4068.4520000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-340.97699999999998</v>
+      </c>
+      <c r="N46">
+        <v>333.43299999999999</v>
+      </c>
+      <c r="O46">
+        <v>5544.241</v>
+      </c>
+      <c r="P46">
+        <v>4327.9009999999998</v>
+      </c>
+      <c r="Q46">
+        <v>-240.69800000000001</v>
+      </c>
+      <c r="R46">
+        <v>40968</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>3323.2530000000002</v>
+      </c>
+      <c r="U46">
+        <v>866.351</v>
+      </c>
+      <c r="V46">
+        <v>-132.44399999999999</v>
+      </c>
+      <c r="W46">
+        <v>-7.5620000000000003</v>
+      </c>
+      <c r="X46">
+        <v>-264.95999999999998</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-20.498000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>14.968</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>452.70299999999997</v>
+      </c>
+      <c r="D47">
+        <v>930.15499999999997</v>
+      </c>
+      <c r="E47">
+        <v>44.843000000000004</v>
+      </c>
+      <c r="F47">
+        <v>205.64</v>
+      </c>
+      <c r="G47">
+        <v>6842.5259999999998</v>
+      </c>
+      <c r="H47">
+        <v>9351.2090000000007</v>
+      </c>
+      <c r="I47">
+        <v>154.66399999999999</v>
+      </c>
+      <c r="J47">
+        <v>4064.5309999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>322.85199999999998</v>
+      </c>
+      <c r="O47">
+        <v>5571.3010000000004</v>
+      </c>
+      <c r="P47">
+        <v>4328.0029999999997</v>
+      </c>
+      <c r="Q47">
+        <v>-93.524000000000001</v>
+      </c>
+      <c r="R47">
+        <v>41060</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3779.9079999999999</v>
+      </c>
+      <c r="U47">
+        <v>760.07</v>
+      </c>
+      <c r="V47">
+        <v>-81.363</v>
+      </c>
+      <c r="W47">
+        <v>-7.57</v>
+      </c>
+      <c r="X47">
+        <v>-33.651000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-10.558999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>452.70299999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>87.108999999999995</v>
+      </c>
+      <c r="D48">
+        <v>1099.758</v>
+      </c>
+      <c r="E48">
+        <v>46.280999999999999</v>
+      </c>
+      <c r="F48">
+        <v>238.46299999999999</v>
+      </c>
+      <c r="G48">
+        <v>7215.6540000000005</v>
+      </c>
+      <c r="H48">
+        <v>9718.5</v>
+      </c>
+      <c r="I48">
+        <v>169.863</v>
+      </c>
+      <c r="J48">
+        <v>4153.0140000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>808.851</v>
+      </c>
+      <c r="O48">
+        <v>5860.1229999999996</v>
+      </c>
+      <c r="P48">
+        <v>4624.1210000000001</v>
+      </c>
+      <c r="Q48">
+        <v>15.776</v>
+      </c>
+      <c r="R48">
+        <v>41152</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3858.377</v>
+      </c>
+      <c r="U48">
+        <v>764.68299999999999</v>
+      </c>
+      <c r="V48">
+        <v>-276.7</v>
+      </c>
+      <c r="W48">
+        <v>-7.6230000000000002</v>
+      </c>
+      <c r="X48">
+        <v>229.72200000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="AA48">
+        <v>87.108999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>124.34399999999999</v>
+      </c>
+      <c r="D49">
+        <v>1350.3630000000001</v>
+      </c>
+      <c r="E49">
+        <v>33.65</v>
+      </c>
+      <c r="F49">
+        <v>313.99900000000002</v>
+      </c>
+      <c r="G49">
+        <v>7963.0079999999998</v>
+      </c>
+      <c r="H49">
+        <v>10362.206</v>
+      </c>
+      <c r="I49">
+        <v>220.69</v>
+      </c>
+      <c r="J49">
+        <v>4579.5309999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>841.572</v>
+      </c>
+      <c r="O49">
+        <v>6360.9979999999996</v>
+      </c>
+      <c r="P49">
+        <v>5037.5249999999996</v>
+      </c>
+      <c r="Q49">
+        <v>465.58499999999998</v>
+      </c>
+      <c r="R49">
+        <v>41243</v>
+      </c>
+      <c r="S49">
+        <v>4722</v>
+      </c>
+      <c r="T49">
+        <v>4001.2080000000001</v>
+      </c>
+      <c r="U49">
+        <v>1252.1769999999999</v>
+      </c>
+      <c r="V49">
+        <v>65.858999999999995</v>
+      </c>
+      <c r="W49">
+        <v>-7.6390000000000002</v>
+      </c>
+      <c r="X49">
+        <v>395.38499999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-45.118000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>124.34399999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>57.491999999999997</v>
+      </c>
+      <c r="D50">
+        <v>990.24300000000005</v>
+      </c>
+      <c r="E50">
+        <v>58.174999999999997</v>
+      </c>
+      <c r="F50">
+        <v>198.434</v>
+      </c>
+      <c r="G50">
+        <v>7885.6109999999999</v>
+      </c>
+      <c r="H50">
+        <v>10432.269</v>
+      </c>
+      <c r="I50">
+        <v>229.88</v>
+      </c>
+      <c r="J50">
+        <v>4713.0870000000004</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-514.11</v>
+      </c>
+      <c r="N50">
+        <v>455.82</v>
+      </c>
+      <c r="O50">
+        <v>6362.6289999999999</v>
+      </c>
+      <c r="P50">
+        <v>5087.9520000000002</v>
+      </c>
+      <c r="Q50">
+        <v>-68.626999999999995</v>
+      </c>
+      <c r="R50">
+        <v>41333</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4069.64</v>
+      </c>
+      <c r="U50">
+        <v>1176.9159999999999</v>
+      </c>
+      <c r="V50">
+        <v>-321.49200000000002</v>
+      </c>
+      <c r="W50">
+        <v>-7.6929999999999996</v>
+      </c>
+      <c r="X50">
+        <v>-7.181</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-4.2160000000000002</v>
+      </c>
+      <c r="AA50">
+        <v>57.491999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>137.43600000000001</v>
+      </c>
+      <c r="D51">
+        <v>1426.8810000000001</v>
+      </c>
+      <c r="E51">
+        <v>60.177999999999997</v>
+      </c>
+      <c r="F51">
+        <v>331.17200000000003</v>
+      </c>
+      <c r="G51">
+        <v>7990.0230000000001</v>
+      </c>
+      <c r="H51">
+        <v>10494.156999999999</v>
+      </c>
+      <c r="I51">
+        <v>228.49100000000001</v>
+      </c>
+      <c r="J51">
+        <v>4641.8379999999997</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>885.76300000000003</v>
+      </c>
+      <c r="O51">
+        <v>6449.3180000000002</v>
+      </c>
+      <c r="P51">
+        <v>5132.9679999999998</v>
+      </c>
+      <c r="Q51">
+        <v>-350.43900000000002</v>
+      </c>
+      <c r="R51">
+        <v>41425</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4044.8389999999999</v>
+      </c>
+      <c r="U51">
+        <v>819.13599999999997</v>
+      </c>
+      <c r="V51">
+        <v>-288.41699999999997</v>
+      </c>
+      <c r="W51">
+        <v>-7.6970000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-203.988</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>95.620999999999995</v>
+      </c>
+      <c r="AA51">
+        <v>137.43600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>120.66200000000001</v>
+      </c>
+      <c r="D52">
+        <v>1602.7670000000001</v>
+      </c>
+      <c r="E52">
+        <v>58.609000000000002</v>
+      </c>
+      <c r="F52">
+        <v>375.94499999999999</v>
+      </c>
+      <c r="G52">
+        <v>8543.9830000000002</v>
+      </c>
+      <c r="H52">
+        <v>11015.593000000001</v>
+      </c>
+      <c r="I52">
+        <v>270.40100000000001</v>
+      </c>
+      <c r="J52">
+        <v>4834.0140000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>871.98699999999997</v>
+      </c>
+      <c r="O52">
+        <v>6844.9070000000002</v>
+      </c>
+      <c r="P52">
+        <v>5262.2240000000002</v>
+      </c>
+      <c r="Q52">
+        <v>-319.90699999999998</v>
+      </c>
+      <c r="R52">
+        <v>41517</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4170.6859999999997</v>
+      </c>
+      <c r="U52">
+        <v>505.96699999999998</v>
+      </c>
+      <c r="V52">
+        <v>-407.83</v>
+      </c>
+      <c r="W52">
+        <v>-7.7519999999999998</v>
+      </c>
+      <c r="X52">
+        <v>55.890999999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-15.973000000000001</v>
+      </c>
+      <c r="AA52">
+        <v>120.66200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>164.084</v>
+      </c>
+      <c r="D53">
+        <v>1915.204</v>
+      </c>
+      <c r="E53">
+        <v>141.786</v>
+      </c>
+      <c r="F53">
+        <v>485.80700000000002</v>
+      </c>
+      <c r="G53">
+        <v>8980.0879999999997</v>
+      </c>
+      <c r="H53">
+        <v>11273.246999999999</v>
+      </c>
+      <c r="I53">
+        <v>288.88299999999998</v>
+      </c>
+      <c r="J53">
+        <v>4650.1729999999998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>840.12900000000002</v>
+      </c>
+      <c r="O53">
+        <v>6645.777</v>
+      </c>
+      <c r="P53">
+        <v>5024.3389999999999</v>
+      </c>
+      <c r="Q53">
+        <v>398.73500000000001</v>
+      </c>
+      <c r="R53">
+        <v>41608</v>
+      </c>
+      <c r="S53">
+        <v>5741</v>
+      </c>
+      <c r="T53">
+        <v>4627.47</v>
+      </c>
+      <c r="U53">
+        <v>897.43899999999996</v>
+      </c>
+      <c r="V53">
+        <v>210.02500000000001</v>
+      </c>
+      <c r="W53">
+        <v>-7.77</v>
+      </c>
+      <c r="X53">
+        <v>-66.495000000000005</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-5.7</v>
+      </c>
+      <c r="AA53">
+        <v>164.084</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>78.117000000000004</v>
+      </c>
+      <c r="D54">
+        <v>1363.095</v>
+      </c>
+      <c r="E54">
+        <v>130.40199999999999</v>
+      </c>
+      <c r="F54">
+        <v>299.85500000000002</v>
+      </c>
+      <c r="G54">
+        <v>9251.2379999999994</v>
+      </c>
+      <c r="H54">
+        <v>11526.788</v>
+      </c>
+      <c r="I54">
+        <v>305.24599999999998</v>
+      </c>
+      <c r="J54">
+        <v>4706.6610000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-258.82</v>
+      </c>
+      <c r="N54">
+        <v>1089.633</v>
+      </c>
+      <c r="O54">
+        <v>6825.6310000000003</v>
+      </c>
+      <c r="P54">
+        <v>5312.0510000000004</v>
+      </c>
+      <c r="Q54">
+        <v>-96.206999999999994</v>
+      </c>
+      <c r="R54">
+        <v>41698</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>4701.1570000000002</v>
+      </c>
+      <c r="U54">
+        <v>817.59100000000001</v>
+      </c>
+      <c r="V54">
+        <v>-394.60700000000003</v>
+      </c>
+      <c r="W54">
+        <v>-8.1690000000000005</v>
+      </c>
+      <c r="X54">
+        <v>223.13</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>22.023</v>
+      </c>
+      <c r="AA54">
+        <v>78.117000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>137.71899999999999</v>
+      </c>
+      <c r="D55">
+        <v>1818.7449999999999</v>
+      </c>
+      <c r="E55">
+        <v>208.92599999999999</v>
+      </c>
+      <c r="F55">
+        <v>401.33199999999999</v>
+      </c>
+      <c r="G55">
+        <v>9797.5650000000005</v>
+      </c>
+      <c r="H55">
+        <v>11994.626</v>
+      </c>
+      <c r="I55">
+        <v>342.49200000000002</v>
+      </c>
+      <c r="J55">
+        <v>4933.7929999999997</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1316.2</v>
+      </c>
+      <c r="O55">
+        <v>7103.3190000000004</v>
+      </c>
+      <c r="P55">
+        <v>5727.6289999999999</v>
+      </c>
+      <c r="Q55">
+        <v>85.941000000000003</v>
+      </c>
+      <c r="R55">
+        <v>41790</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4891.3069999999998</v>
+      </c>
+      <c r="U55">
+        <v>874.07500000000005</v>
+      </c>
+      <c r="V55">
+        <v>-327.089</v>
+      </c>
+      <c r="W55">
+        <v>-8.1859999999999999</v>
+      </c>
+      <c r="X55">
+        <v>300.39400000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>63.92</v>
+      </c>
+      <c r="AA55">
+        <v>137.71899999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>177.75700000000001</v>
+      </c>
+      <c r="D56">
+        <v>2014.0340000000001</v>
+      </c>
+      <c r="E56">
+        <v>83.42</v>
+      </c>
+      <c r="F56">
+        <v>474.40199999999999</v>
+      </c>
+      <c r="G56">
+        <v>10016.969999999999</v>
+      </c>
+      <c r="H56">
+        <v>12290.076999999999</v>
+      </c>
+      <c r="I56">
+        <v>383.60300000000001</v>
+      </c>
+      <c r="J56">
+        <v>4942.335</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1417.5340000000001</v>
+      </c>
+      <c r="O56">
+        <v>7251.9359999999997</v>
+      </c>
+      <c r="P56">
+        <v>5798.9859999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-126.726</v>
+      </c>
+      <c r="R56">
+        <v>41882</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5038.1409999999996</v>
+      </c>
+      <c r="U56">
+        <v>755.15200000000004</v>
+      </c>
+      <c r="V56">
+        <v>-176.80500000000001</v>
+      </c>
+      <c r="W56">
+        <v>-8.2100000000000009</v>
+      </c>
+      <c r="X56">
+        <v>-4.47</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-18.687000000000001</v>
+      </c>
+      <c r="AA56">
+        <v>177.75700000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>245.32300000000001</v>
+      </c>
+      <c r="D57">
+        <v>2583.9380000000001</v>
+      </c>
+      <c r="E57">
+        <v>195.27099999999999</v>
+      </c>
+      <c r="F57">
+        <v>638.43299999999999</v>
+      </c>
+      <c r="G57">
+        <v>10829.040999999999</v>
+      </c>
+      <c r="H57">
+        <v>12923.151</v>
+      </c>
+      <c r="I57">
+        <v>460.79300000000001</v>
+      </c>
+      <c r="J57">
+        <v>5278.3429999999998</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>655.73800000000006</v>
+      </c>
+      <c r="O57">
+        <v>7671.8490000000002</v>
+      </c>
+      <c r="P57">
+        <v>5983.8620000000001</v>
+      </c>
+      <c r="Q57">
+        <v>448.30099999999999</v>
+      </c>
+      <c r="R57">
+        <v>41973</v>
+      </c>
+      <c r="S57">
+        <v>6825</v>
+      </c>
+      <c r="T57">
+        <v>5251.3019999999997</v>
+      </c>
+      <c r="U57">
+        <v>1191.8040000000001</v>
+      </c>
+      <c r="V57">
+        <v>110.01300000000001</v>
+      </c>
+      <c r="W57">
+        <v>-8.2100000000000009</v>
+      </c>
+      <c r="X57">
+        <v>142.38399999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>81.676000000000002</v>
+      </c>
+      <c r="AA57">
+        <v>245.32300000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>114.96299999999999</v>
+      </c>
+      <c r="D58">
+        <v>1644.1389999999999</v>
+      </c>
+      <c r="E58">
+        <v>69.540999999999997</v>
+      </c>
+      <c r="F58">
+        <v>347.27600000000001</v>
+      </c>
+      <c r="G58">
+        <v>10989.713</v>
+      </c>
+      <c r="H58">
+        <v>13120.645</v>
+      </c>
+      <c r="I58">
+        <v>429.37299999999999</v>
+      </c>
+      <c r="J58">
+        <v>5008.9250000000002</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-155.22800000000001</v>
+      </c>
+      <c r="N58">
+        <v>2017.31</v>
+      </c>
+      <c r="O58">
+        <v>7811.6549999999997</v>
+      </c>
+      <c r="P58">
+        <v>6411.6909999999998</v>
+      </c>
+      <c r="Q58">
+        <v>-463.38400000000001</v>
+      </c>
+      <c r="R58">
+        <v>42063</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5308.99</v>
+      </c>
+      <c r="U58">
+        <v>734.22900000000004</v>
+      </c>
+      <c r="V58">
+        <v>-730.26400000000001</v>
+      </c>
+      <c r="W58">
+        <v>-8.2080000000000002</v>
+      </c>
+      <c r="X58">
+        <v>334.07400000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-68.144999999999996</v>
+      </c>
+      <c r="AA58">
+        <v>114.96299999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>183.01599999999999</v>
+      </c>
+      <c r="D59">
+        <v>2392.6039999999998</v>
+      </c>
+      <c r="E59">
+        <v>70.442999999999998</v>
+      </c>
+      <c r="F59">
+        <v>530.54300000000001</v>
+      </c>
+      <c r="G59">
+        <v>11744.659</v>
+      </c>
+      <c r="H59">
+        <v>13895.459000000001</v>
+      </c>
+      <c r="I59">
+        <v>489.77600000000001</v>
+      </c>
+      <c r="J59">
+        <v>5703.982</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1760.059</v>
+      </c>
+      <c r="O59">
+        <v>8419.74</v>
+      </c>
+      <c r="P59">
+        <v>6786.2550000000001</v>
+      </c>
+      <c r="Q59">
+        <v>101.727</v>
+      </c>
+      <c r="R59">
+        <v>42155</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5475.7190000000001</v>
+      </c>
+      <c r="U59">
+        <v>817.06399999999996</v>
+      </c>
+      <c r="V59">
+        <v>-264.26900000000001</v>
+      </c>
+      <c r="W59">
+        <v>-8.2100000000000009</v>
+      </c>
+      <c r="X59">
+        <v>306.13799999999998</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-21.489000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>183.01599999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>223.31200000000001</v>
+      </c>
+      <c r="D60">
+        <v>2491.6979999999999</v>
+      </c>
+      <c r="E60">
+        <v>74.603999999999999</v>
+      </c>
+      <c r="F60">
+        <v>567.70799999999997</v>
+      </c>
+      <c r="G60">
+        <v>11961.958000000001</v>
+      </c>
+      <c r="H60">
+        <v>14169.375</v>
+      </c>
+      <c r="I60">
+        <v>491.79500000000002</v>
+      </c>
+      <c r="J60">
+        <v>5682.3519999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1861.3330000000001</v>
+      </c>
+      <c r="O60">
+        <v>8494.6779999999999</v>
+      </c>
+      <c r="P60">
+        <v>6859.6940000000004</v>
+      </c>
+      <c r="Q60">
+        <v>-114.863</v>
+      </c>
+      <c r="R60">
+        <v>42247</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5674.6970000000001</v>
+      </c>
+      <c r="U60">
+        <v>705.98900000000003</v>
+      </c>
+      <c r="V60">
+        <v>-93.881</v>
+      </c>
+      <c r="W60">
+        <v>-8.3469999999999995</v>
+      </c>
+      <c r="X60">
+        <v>-12.637</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-9.3409999999999993</v>
+      </c>
+      <c r="AA60">
+        <v>223.31200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>281.60300000000001</v>
+      </c>
+      <c r="D61">
+        <v>2945.567</v>
+      </c>
+      <c r="E61">
+        <v>229.98099999999999</v>
+      </c>
+      <c r="F61">
+        <v>687.78300000000002</v>
+      </c>
+      <c r="G61">
+        <v>12126.987999999999</v>
+      </c>
+      <c r="H61">
+        <v>14419.509</v>
+      </c>
+      <c r="I61">
+        <v>538.85199999999998</v>
+      </c>
+      <c r="J61">
+        <v>5796.8580000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1593.9829999999999</v>
+      </c>
+      <c r="O61">
+        <v>8469.4369999999999</v>
+      </c>
+      <c r="P61">
+        <v>6656.1360000000004</v>
+      </c>
+      <c r="Q61">
+        <v>353.15100000000001</v>
+      </c>
+      <c r="R61">
+        <v>42338</v>
+      </c>
+      <c r="S61">
+        <v>7749</v>
+      </c>
+      <c r="T61">
+        <v>5950.0720000000001</v>
+      </c>
+      <c r="U61">
+        <v>1051.6679999999999</v>
+      </c>
+      <c r="V61">
+        <v>668.76800000000003</v>
+      </c>
+      <c r="W61">
+        <v>-8.4269999999999996</v>
+      </c>
+      <c r="X61">
+        <v>-232.905</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-72.078999999999994</v>
+      </c>
+      <c r="AA61">
+        <v>281.60300000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>144.08000000000001</v>
+      </c>
+      <c r="D62">
+        <v>1993.664</v>
+      </c>
+      <c r="E62">
+        <v>61.228999999999999</v>
+      </c>
+      <c r="F62">
+        <v>416.35500000000002</v>
+      </c>
+      <c r="G62">
+        <v>11805.885</v>
+      </c>
+      <c r="H62">
+        <v>14195.188</v>
+      </c>
+      <c r="I62">
+        <v>500.20499999999998</v>
+      </c>
+      <c r="J62">
+        <v>5372.3379999999997</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-617.9</v>
+      </c>
+      <c r="N62">
+        <v>1899.336</v>
+      </c>
+      <c r="O62">
+        <v>8101.7389999999996</v>
+      </c>
+      <c r="P62">
+        <v>6574.4359999999997</v>
+      </c>
+      <c r="Q62">
+        <v>-437.98599999999999</v>
+      </c>
+      <c r="R62">
+        <v>42429</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>6093.4489999999996</v>
+      </c>
+      <c r="U62">
+        <v>629.245</v>
+      </c>
+      <c r="V62">
+        <v>-215.887</v>
+      </c>
+      <c r="W62">
+        <v>-8.5519999999999996</v>
+      </c>
+      <c r="X62">
+        <v>-155.51300000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-60.04</v>
+      </c>
+      <c r="AA62">
+        <v>144.08000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>218.46899999999999</v>
+      </c>
+      <c r="D63">
+        <v>2745.8150000000001</v>
+      </c>
+      <c r="E63">
+        <v>45</v>
+      </c>
+      <c r="F63">
+        <v>603.03</v>
+      </c>
+      <c r="G63">
+        <v>12381.741</v>
+      </c>
+      <c r="H63">
+        <v>14847.800999999999</v>
+      </c>
+      <c r="I63">
+        <v>525.73699999999997</v>
+      </c>
+      <c r="J63">
+        <v>5660.7820000000002</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1765.6679999999999</v>
+      </c>
+      <c r="O63">
+        <v>8484.8670000000002</v>
+      </c>
+      <c r="P63">
+        <v>6713.7049999999999</v>
+      </c>
+      <c r="Q63">
+        <v>95.018000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42521</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>6362.9340000000002</v>
+      </c>
+      <c r="U63">
+        <v>709.88099999999997</v>
+      </c>
+      <c r="V63">
+        <v>40.505000000000003</v>
+      </c>
+      <c r="W63">
+        <v>-8.6389999999999993</v>
+      </c>
+      <c r="X63">
+        <v>137.554</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-81.146000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>218.46899999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>235.84200000000001</v>
+      </c>
+      <c r="D64">
+        <v>2833.8939999999998</v>
+      </c>
+      <c r="E64">
+        <v>78.986000000000004</v>
+      </c>
+      <c r="F64">
+        <v>613.48500000000001</v>
+      </c>
+      <c r="G64">
+        <v>12518.457</v>
+      </c>
+      <c r="H64">
+        <v>14998.72</v>
+      </c>
+      <c r="I64">
+        <v>554.529</v>
+      </c>
+      <c r="J64">
+        <v>5263.5060000000003</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1895.24</v>
+      </c>
+      <c r="O64">
+        <v>8235.8140000000003</v>
+      </c>
+      <c r="P64">
+        <v>6410.5739999999996</v>
+      </c>
+      <c r="Q64">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42613</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>6762.9059999999999</v>
+      </c>
+      <c r="U64">
+        <v>705.93100000000004</v>
+      </c>
+      <c r="V64">
+        <v>172.30199999999999</v>
+      </c>
+      <c r="W64">
+        <v>-9.0310000000000006</v>
+      </c>
+      <c r="X64">
+        <v>-204.636</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-4.07</v>
+      </c>
+      <c r="AA64">
+        <v>235.84200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>313.45299999999997</v>
+      </c>
+      <c r="D65">
+        <v>3376.6260000000002</v>
+      </c>
+      <c r="E65">
+        <v>330.63499999999999</v>
+      </c>
+      <c r="F65">
+        <v>760.97199999999998</v>
+      </c>
+      <c r="G65">
+        <v>12705.811</v>
+      </c>
+      <c r="H65">
+        <v>15361.781000000001</v>
+      </c>
+      <c r="I65">
+        <v>591.73699999999997</v>
+      </c>
+      <c r="J65">
+        <v>5198.3119999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>784.54</v>
+      </c>
+      <c r="O65">
+        <v>8150.2139999999999</v>
+      </c>
+      <c r="P65">
+        <v>6275.54</v>
+      </c>
+      <c r="Q65">
+        <v>513.43399999999997</v>
+      </c>
+      <c r="R65">
+        <v>42704</v>
+      </c>
+      <c r="S65">
+        <v>8335</v>
+      </c>
+      <c r="T65">
+        <v>7211.567</v>
+      </c>
+      <c r="U65">
+        <v>1205.5650000000001</v>
+      </c>
+      <c r="V65">
+        <v>510.88400000000001</v>
+      </c>
+      <c r="W65">
+        <v>-9.1020000000000003</v>
+      </c>
+      <c r="X65">
+        <v>-28.288</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-12.048</v>
+      </c>
+      <c r="AA65">
+        <v>313.45299999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>38.08</v>
+      </c>
+      <c r="D66">
+        <v>2337.4279999999999</v>
+      </c>
+      <c r="E66">
+        <v>354.71199999999999</v>
+      </c>
+      <c r="F66">
+        <v>452.94</v>
+      </c>
+      <c r="G66">
+        <v>12966.322</v>
+      </c>
+      <c r="H66">
+        <v>16230.112999999999</v>
+      </c>
+      <c r="I66">
+        <v>579.36199999999997</v>
+      </c>
+      <c r="J66">
+        <v>5391.0259999999998</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-562.56899999999996</v>
+      </c>
+      <c r="N66">
+        <v>2351.0819999999999</v>
+      </c>
+      <c r="O66">
+        <v>8974.3379999999997</v>
+      </c>
+      <c r="P66">
+        <v>6964.7420000000002</v>
+      </c>
+      <c r="Q66">
+        <v>-400.46899999999999</v>
+      </c>
+      <c r="R66">
+        <v>42794</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>7255.7749999999996</v>
+      </c>
+      <c r="U66">
+        <v>809.75199999999995</v>
+      </c>
+      <c r="V66">
+        <v>79.323999999999998</v>
+      </c>
+      <c r="W66">
+        <v>-9.4</v>
+      </c>
+      <c r="X66">
+        <v>286.28899999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-159.01400000000001</v>
+      </c>
+      <c r="AA66">
+        <v>38.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>213.64500000000001</v>
+      </c>
+      <c r="D67">
+        <v>3261.8919999999998</v>
+      </c>
+      <c r="E67">
+        <v>562.66499999999996</v>
+      </c>
+      <c r="F67">
+        <v>668.35400000000004</v>
+      </c>
+      <c r="G67">
+        <v>13435.678</v>
+      </c>
+      <c r="H67">
+        <v>16754.505000000001</v>
+      </c>
+      <c r="I67">
+        <v>615.9</v>
+      </c>
+      <c r="J67">
+        <v>5774.7539999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2401.0590000000002</v>
+      </c>
+      <c r="O67">
+        <v>9317.4989999999998</v>
+      </c>
+      <c r="P67">
+        <v>7343.0630000000001</v>
+      </c>
+      <c r="Q67">
+        <v>54.908000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42886</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7437.0060000000003</v>
+      </c>
+      <c r="U67">
+        <v>876.53200000000004</v>
+      </c>
+      <c r="V67">
+        <v>-239.083</v>
+      </c>
+      <c r="W67">
+        <v>-9.3780000000000001</v>
+      </c>
+      <c r="X67">
+        <v>401.44499999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-114.07</v>
+      </c>
+      <c r="AA67">
+        <v>213.64500000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>249.16499999999999</v>
+      </c>
+      <c r="D68">
+        <v>3261.4760000000001</v>
+      </c>
+      <c r="E68">
+        <v>158.10400000000001</v>
+      </c>
+      <c r="F68">
+        <v>710.42</v>
+      </c>
+      <c r="G68">
+        <v>13514.499</v>
+      </c>
+      <c r="H68">
+        <v>16939.373</v>
+      </c>
+      <c r="I68">
+        <v>653.01400000000001</v>
+      </c>
+      <c r="J68">
+        <v>5546.82</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2189.8789999999999</v>
+      </c>
+      <c r="O68">
+        <v>9279.9130000000005</v>
+      </c>
+      <c r="P68">
+        <v>6862.9620000000004</v>
+      </c>
+      <c r="Q68">
+        <v>-146.24199999999999</v>
+      </c>
+      <c r="R68">
+        <v>42978</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>7659.46</v>
+      </c>
+      <c r="U68">
+        <v>722.71</v>
+      </c>
+      <c r="V68">
+        <v>487.47199999999998</v>
+      </c>
+      <c r="W68">
+        <v>-9.4030000000000005</v>
+      </c>
+      <c r="X68">
+        <v>-549.69899999999996</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-68.796999999999997</v>
+      </c>
+      <c r="AA68">
+        <v>249.16499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>309.58999999999997</v>
+      </c>
+      <c r="D69">
+        <v>3785.569</v>
+      </c>
+      <c r="E69">
+        <v>126.74299999999999</v>
+      </c>
+      <c r="F69">
+        <v>809.01800000000003</v>
+      </c>
+      <c r="G69">
+        <v>15513.516</v>
+      </c>
+      <c r="H69">
+        <v>18745.034</v>
+      </c>
+      <c r="I69">
+        <v>751.69500000000005</v>
+      </c>
+      <c r="J69">
+        <v>7035.0839999999998</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>974.01400000000001</v>
+      </c>
+      <c r="O69">
+        <v>10758.902</v>
+      </c>
+      <c r="P69">
+        <v>7972.5150000000003</v>
+      </c>
+      <c r="Q69">
+        <v>1813.146</v>
+      </c>
+      <c r="R69">
+        <v>43069</v>
+      </c>
+      <c r="S69">
+        <v>9111</v>
+      </c>
+      <c r="T69">
+        <v>7986.1319999999996</v>
+      </c>
+      <c r="U69">
+        <v>2533.462</v>
+      </c>
+      <c r="V69">
+        <v>669.15099999999995</v>
+      </c>
+      <c r="W69">
+        <v>-9.4269999999999996</v>
+      </c>
+      <c r="X69">
+        <v>1056.261</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-10.798</v>
+      </c>
+      <c r="AA69">
+        <v>309.58999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>136.215</v>
+      </c>
+      <c r="D70">
+        <v>2980.7910000000002</v>
+      </c>
+      <c r="E70">
+        <v>266.84800000000001</v>
+      </c>
+      <c r="F70">
+        <v>539.88</v>
+      </c>
+      <c r="G70">
+        <v>20533.802</v>
+      </c>
+      <c r="H70">
+        <v>27944.023000000001</v>
+      </c>
+      <c r="I70">
+        <v>923.85400000000004</v>
+      </c>
+      <c r="J70">
+        <v>9635.9419999999991</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-460.05900000000003</v>
+      </c>
+      <c r="N70">
+        <v>3208.752</v>
+      </c>
+      <c r="O70">
+        <v>14769.939</v>
+      </c>
+      <c r="P70">
+        <v>11593.659</v>
+      </c>
+      <c r="Q70">
+        <v>-1609.87</v>
+      </c>
+      <c r="R70">
+        <v>43159</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>13174.084000000001</v>
+      </c>
+      <c r="U70">
+        <v>863.73599999999999</v>
+      </c>
+      <c r="V70">
+        <v>-155.529</v>
+      </c>
+      <c r="W70">
+        <v>-9.6170000000000009</v>
+      </c>
+      <c r="X70">
+        <v>-450.34899999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>92.042000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>136.215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>310.25700000000001</v>
+      </c>
+      <c r="D71">
+        <v>5459.0609999999997</v>
+      </c>
+      <c r="E71">
+        <v>268.68299999999999</v>
+      </c>
+      <c r="F71">
+        <v>1159.367</v>
+      </c>
+      <c r="G71">
+        <v>20800.004000000001</v>
+      </c>
+      <c r="H71">
+        <v>28351.109</v>
+      </c>
+      <c r="I71">
+        <v>990.83399999999995</v>
+      </c>
+      <c r="J71">
+        <v>9583.6190000000006</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>3064.9929999999999</v>
+      </c>
+      <c r="O71">
+        <v>14652.239</v>
+      </c>
+      <c r="P71">
+        <v>11300.243</v>
+      </c>
+      <c r="Q71">
+        <v>112.137</v>
+      </c>
+      <c r="R71">
+        <v>43251</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>13698.87</v>
+      </c>
+      <c r="U71">
+        <v>990.86199999999997</v>
+      </c>
+      <c r="V71">
+        <v>175.04300000000001</v>
+      </c>
+      <c r="W71">
+        <v>-13.163</v>
+      </c>
+      <c r="X71">
+        <v>-115.584</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>50.247999999999998</v>
+      </c>
+      <c r="AA71">
+        <v>310.25700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>453.21100000000001</v>
+      </c>
+      <c r="D72">
+        <v>5672.5690000000004</v>
+      </c>
+      <c r="E72">
+        <v>236.923</v>
+      </c>
+      <c r="F72">
+        <v>1209.8620000000001</v>
+      </c>
+      <c r="G72">
+        <v>20750.777999999998</v>
+      </c>
+      <c r="H72">
+        <v>28289.395</v>
+      </c>
+      <c r="I72">
+        <v>1109.163</v>
+      </c>
+      <c r="J72">
+        <v>9255.6929999999993</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2828.623</v>
+      </c>
+      <c r="O72">
+        <v>14173.215</v>
+      </c>
+      <c r="P72">
+        <v>10614.004999999999</v>
+      </c>
+      <c r="Q72">
+        <v>-112.809</v>
+      </c>
+      <c r="R72">
+        <v>43343</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>14116.18</v>
+      </c>
+      <c r="U72">
+        <v>883.36500000000001</v>
+      </c>
+      <c r="V72">
+        <v>706.90300000000002</v>
+      </c>
+      <c r="W72">
+        <v>-13.205</v>
+      </c>
+      <c r="X72">
+        <v>-752.15200000000004</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-53.593000000000004</v>
+      </c>
+      <c r="AA72">
+        <v>453.21100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>796.14800000000002</v>
+      </c>
+      <c r="D73">
+        <v>6459.21</v>
+      </c>
+      <c r="E73">
+        <v>186.874</v>
+      </c>
+      <c r="F73">
+        <v>1392.7850000000001</v>
+      </c>
+      <c r="G73">
+        <v>21284.918000000001</v>
+      </c>
+      <c r="H73">
+        <v>28566.181</v>
+      </c>
+      <c r="I73">
+        <v>1325.3979999999999</v>
+      </c>
+      <c r="J73">
+        <v>8558.3559999999998</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1715.2070000000001</v>
+      </c>
+      <c r="O73">
+        <v>13883.224</v>
+      </c>
+      <c r="P73">
+        <v>10117.058000000001</v>
+      </c>
+      <c r="Q73">
+        <v>512.43399999999997</v>
+      </c>
+      <c r="R73">
+        <v>43434</v>
+      </c>
+      <c r="S73">
+        <v>11626</v>
+      </c>
+      <c r="T73">
+        <v>14682.957</v>
+      </c>
+      <c r="U73">
+        <v>1369.973</v>
+      </c>
+      <c r="V73">
+        <v>965.33</v>
+      </c>
+      <c r="W73">
+        <v>-13.173999999999999</v>
+      </c>
+      <c r="X73">
+        <v>-877.81600000000003</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>100.40300000000001</v>
+      </c>
+      <c r="AA73">
+        <v>796.14800000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>239.91</v>
+      </c>
+      <c r="D74">
+        <v>3868.0819999999999</v>
+      </c>
+      <c r="E74">
+        <v>297.08699999999999</v>
+      </c>
+      <c r="F74">
+        <v>745.36699999999996</v>
+      </c>
+      <c r="G74">
+        <v>21409.42</v>
+      </c>
+      <c r="H74">
+        <v>28749.925999999999</v>
+      </c>
+      <c r="I74">
+        <v>1195.635</v>
+      </c>
+      <c r="J74">
+        <v>8174.5140000000001</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-601.63800000000003</v>
+      </c>
+      <c r="N74">
+        <v>2687.828</v>
+      </c>
+      <c r="O74">
+        <v>13856.231</v>
+      </c>
+      <c r="P74">
+        <v>10381.632</v>
+      </c>
+      <c r="Q74">
+        <v>-533.38900000000001</v>
+      </c>
+      <c r="R74">
+        <v>43524</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>14893.695</v>
+      </c>
+      <c r="U74">
+        <v>881.98800000000006</v>
+      </c>
+      <c r="V74">
+        <v>-524.423</v>
+      </c>
+      <c r="W74">
+        <v>-12.86</v>
+      </c>
+      <c r="X74">
+        <v>69.022000000000006</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-67.91</v>
+      </c>
+      <c r="AA74">
+        <v>239.91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>421.47199999999998</v>
+      </c>
+      <c r="D75">
+        <v>5562.89</v>
+      </c>
+      <c r="E75">
+        <v>383.86500000000001</v>
+      </c>
+      <c r="F75">
+        <v>1111.444</v>
+      </c>
+      <c r="G75">
+        <v>22279.588</v>
+      </c>
+      <c r="H75">
+        <v>29583.063999999998</v>
+      </c>
+      <c r="I75">
+        <v>1243.6379999999999</v>
+      </c>
+      <c r="J75">
+        <v>8346.1980000000003</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2707.145</v>
+      </c>
+      <c r="O75">
+        <v>14336.529</v>
+      </c>
+      <c r="P75">
+        <v>10659.798000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-41.518000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43616</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>15246.535</v>
+      </c>
+      <c r="U75">
+        <v>821.649</v>
+      </c>
+      <c r="V75">
+        <v>94.533000000000001</v>
+      </c>
+      <c r="W75">
+        <v>-13.016999999999999</v>
+      </c>
+      <c r="X75">
+        <v>-122.453</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>421.47199999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>513.36599999999999</v>
+      </c>
+      <c r="D76">
+        <v>5857.058</v>
+      </c>
+      <c r="E76">
+        <v>373.43400000000003</v>
+      </c>
+      <c r="F76">
+        <v>1185.692</v>
+      </c>
+      <c r="G76">
+        <v>22159.004000000001</v>
+      </c>
+      <c r="H76">
+        <v>29459.447</v>
+      </c>
+      <c r="I76">
+        <v>1269.6220000000001</v>
+      </c>
+      <c r="J76">
+        <v>8526.4390000000003</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2232.9859999999999</v>
+      </c>
+      <c r="O76">
+        <v>13993.5</v>
+      </c>
+      <c r="P76">
+        <v>10282.365</v>
+      </c>
+      <c r="Q76">
+        <v>48.792999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43708</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>15465.947</v>
+      </c>
+      <c r="U76">
+        <v>817.245</v>
+      </c>
+      <c r="V76">
+        <v>728.18299999999999</v>
+      </c>
+      <c r="W76">
+        <v>-12.898999999999999</v>
+      </c>
+      <c r="X76">
+        <v>-731.61900000000003</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>16.038</v>
+      </c>
+      <c r="AA76">
+        <v>513.36599999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>674.30399999999997</v>
+      </c>
+      <c r="D77">
+        <v>6971.5309999999999</v>
+      </c>
+      <c r="E77">
+        <v>202.8</v>
+      </c>
+      <c r="F77">
+        <v>1474.9770000000001</v>
+      </c>
+      <c r="G77">
+        <v>22202.288</v>
+      </c>
+      <c r="H77">
+        <v>29359.510999999999</v>
+      </c>
+      <c r="I77">
+        <v>1069.1790000000001</v>
+      </c>
+      <c r="J77">
+        <v>7776.6379999999999</v>
+      </c>
+      <c r="K77">
+        <v>36.125</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1414.62</v>
+      </c>
+      <c r="O77">
+        <v>13325.681</v>
+      </c>
+      <c r="P77">
+        <v>9573.6959999999999</v>
+      </c>
+      <c r="Q77">
+        <v>398.82900000000001</v>
+      </c>
+      <c r="R77">
+        <v>43799</v>
+      </c>
+      <c r="S77">
+        <v>10106</v>
+      </c>
+      <c r="T77">
+        <v>16033.83</v>
+      </c>
+      <c r="U77">
+        <v>1211.883</v>
+      </c>
+      <c r="V77">
+        <v>1184.05</v>
+      </c>
+      <c r="W77">
+        <v>-12.678000000000001</v>
+      </c>
+      <c r="X77">
+        <v>-844.17399999999998</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>55.548000000000002</v>
+      </c>
+      <c r="AA77">
+        <v>674.30399999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>398.452</v>
+      </c>
+      <c r="D78">
+        <v>4505.3370000000004</v>
+      </c>
+      <c r="E78">
+        <v>392.13600000000002</v>
+      </c>
+      <c r="F78">
+        <v>895.15700000000004</v>
+      </c>
+      <c r="G78">
+        <v>22022.309000000001</v>
+      </c>
+      <c r="H78">
+        <v>29173.699000000001</v>
+      </c>
+      <c r="I78">
+        <v>1180.7080000000001</v>
+      </c>
+      <c r="J78">
+        <v>7214.2809999999999</v>
+      </c>
+      <c r="K78">
+        <v>300</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-848.85199999999998</v>
+      </c>
+      <c r="N78">
+        <v>2459.7159999999999</v>
+      </c>
+      <c r="O78">
+        <v>12980.322</v>
+      </c>
+      <c r="P78">
+        <v>9120.8279999999995</v>
+      </c>
+      <c r="Q78">
+        <v>-393.649</v>
+      </c>
+      <c r="R78">
+        <v>43890</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>16193.377</v>
+      </c>
+      <c r="U78">
+        <v>805.77</v>
+      </c>
+      <c r="V78">
+        <v>382.976</v>
+      </c>
+      <c r="W78">
+        <v>-39.24</v>
+      </c>
+      <c r="X78">
+        <v>-789.80399999999997</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>13.611000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>398.452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>517.40599999999995</v>
+      </c>
+      <c r="D79">
+        <v>5287.3729999999996</v>
+      </c>
+      <c r="E79">
+        <v>386.67700000000002</v>
+      </c>
+      <c r="F79">
+        <v>1148.4770000000001</v>
+      </c>
+      <c r="G79">
+        <v>22192.284</v>
+      </c>
+      <c r="H79">
+        <v>29309.025000000001</v>
+      </c>
+      <c r="I79">
+        <v>1033.558</v>
+      </c>
+      <c r="J79">
+        <v>6287.0619999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2616.902</v>
+      </c>
+      <c r="O79">
+        <v>12676.401</v>
+      </c>
+      <c r="P79">
+        <v>8937.3819999999996</v>
+      </c>
+      <c r="Q79">
+        <v>581.84</v>
+      </c>
+      <c r="R79">
+        <v>43982</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>16632.624</v>
+      </c>
+      <c r="U79">
+        <v>1417.692</v>
+      </c>
+      <c r="V79">
+        <v>927.827</v>
+      </c>
+      <c r="W79">
+        <v>-38.905000000000001</v>
+      </c>
+      <c r="X79">
+        <v>-158.76599999999999</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-202.55799999999999</v>
+      </c>
+      <c r="AA79">
+        <v>517.40599999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>666.41800000000001</v>
+      </c>
+      <c r="D80">
+        <v>5870.2539999999999</v>
+      </c>
+      <c r="E80">
+        <v>382.68299999999999</v>
+      </c>
+      <c r="F80">
+        <v>1410.2080000000001</v>
+      </c>
+      <c r="G80">
+        <v>22134.133999999998</v>
+      </c>
+      <c r="H80">
+        <v>29315.285</v>
+      </c>
+      <c r="I80">
+        <v>1140.3409999999999</v>
+      </c>
+      <c r="J80">
+        <v>6880.4170000000004</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1833.0530000000001</v>
+      </c>
+      <c r="O80">
+        <v>12034.94</v>
+      </c>
+      <c r="P80">
+        <v>8138.5940000000001</v>
+      </c>
+      <c r="Q80">
+        <v>575.19600000000003</v>
+      </c>
+      <c r="R80">
+        <v>44074</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>17280.345000000001</v>
+      </c>
+      <c r="U80">
+        <v>1991.6890000000001</v>
+      </c>
+      <c r="V80">
+        <v>1586.0409999999999</v>
+      </c>
+      <c r="W80">
+        <v>-38.966999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-917.42</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-87.804000000000002</v>
+      </c>
+      <c r="AA80">
+        <v>666.41800000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>882.76</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>6825.89</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>217.39099999999999</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>1717.3610000000001</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>22637.788</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>29935.177</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>1037.338</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>5662.5810000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>3018.2159999999999</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>11835.776</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>7544.4189999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>700.65200000000004</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44165</v>
       </c>
-      <c r="S42">
+      <c r="S81">
         <v>9495</v>
       </c>
-      <c r="T42">
+      <c r="T81">
         <v>18099.401000000002</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>2746.8670000000002</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>1293.9749999999999</v>
       </c>
-      <c r="W42">
+      <c r="W81">
         <v>-77.930999999999997</v>
       </c>
-      <c r="X42">
+      <c r="X81">
         <v>-580.58500000000004</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>89.22</v>
       </c>
-      <c r="Z42">
+      <c r="Z81">
         <v>21.864999999999998</v>
       </c>
-      <c r="AA42">
+      <c r="AA81">
         <v>882.76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>5325.4679999999998</v>
+      </c>
+      <c r="E82">
+        <v>300.13400000000001</v>
+      </c>
+      <c r="F82">
+        <v>1388.5070000000001</v>
+      </c>
+      <c r="G82">
+        <v>20432.365000000002</v>
+      </c>
+      <c r="H82">
+        <v>30551.98</v>
+      </c>
+      <c r="I82">
+        <v>1037.2660000000001</v>
+      </c>
+      <c r="J82">
+        <v>5976.1679999999997</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1037.2660000000001</v>
+      </c>
+      <c r="O82">
+        <v>11534.529</v>
+      </c>
+      <c r="P82">
+        <v>5976.1679999999997</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>44255</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>19017.451000000001</v>
+      </c>
+      <c r="U82">
+        <v>2421.4110000000001</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>1001.369</v>
       </c>
     </row>
   </sheetData>
